--- a/Lab1/docs/Statistics.xlsx
+++ b/Lab1/docs/Statistics.xlsx
@@ -25,8 +25,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Mike Pinto</author>
+  </authors>
+  <commentList>
+    <comment ref="G14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mike Pinto:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Com as specs do sistema, para este valor, ocorreu memory swapping, o que prejudica bastante o tempo de execução dado o tempo de acesso ao disco</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="6">
   <si>
     <t>Linguagem</t>
   </si>
@@ -45,15 +79,12 @@
   <si>
     <t>Capacidade [MFLOPS/s]</t>
   </si>
-  <si>
-    <t>(Not enough memory)</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,6 +99,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -84,7 +128,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -227,100 +271,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -334,16 +289,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -352,31 +298,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -406,8 +340,8 @@
       <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2419351" cy="461963"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -595,7 +529,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -650,15 +584,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:colOff>657225</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>180976</xdr:rowOff>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>828675</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>161926</xdr:rowOff>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -667,8 +601,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6086475" y="1143001"/>
-          <a:ext cx="3038475" cy="561975"/>
+          <a:off x="6581775" y="1000126"/>
+          <a:ext cx="2085975" cy="1076324"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -718,6 +652,41 @@
             <a:rPr lang="pt-PT" sz="1200" b="0" baseline="0"/>
             <a:t> Q6600@2.4Ghz</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-PT" sz="1200" b="0" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1400" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Memória</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" sz="1400" b="0" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4GB DDR2 667Mhz</a:t>
+          </a:r>
           <a:endParaRPr lang="pt-PT" sz="1200" b="0"/>
         </a:p>
       </xdr:txBody>
@@ -737,8 +706,8 @@
       <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2419351" cy="461963"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -926,7 +895,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -981,25 +950,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1504950</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>1257300</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvPr id="4" name="TextBox 3"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8715375" y="3438525"/>
-          <a:ext cx="2276475" cy="561975"/>
+          <a:off x="8658225" y="3124200"/>
+          <a:ext cx="2085975" cy="1076324"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1048,6 +1017,41 @@
           <a:r>
             <a:rPr lang="pt-PT" sz="1200" b="0" baseline="0"/>
             <a:t> Q6600@2.4Ghz</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="pt-PT" sz="1200" b="0" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1400" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Memória</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-PT" sz="1400" b="0" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-PT" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4GB DDR2 667Mhz</a:t>
           </a:r>
           <a:endParaRPr lang="pt-PT" sz="1200" b="0"/>
         </a:p>
@@ -1324,7 +1328,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1354,95 +1358,95 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>600</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>1.419</v>
       </c>
-      <c r="D2" s="10">
-        <f>(2*(B2^3)/C2)/1000000</f>
+      <c r="D2" s="7">
+        <f t="shared" ref="D2:D8" si="0">(2*(B2^3)/C2)/1000000</f>
         <v>304.43974630021143</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="4">
         <v>1000</v>
       </c>
       <c r="C3" s="4">
         <v>7.8129999999999997</v>
       </c>
-      <c r="D3" s="13">
-        <f>(2*(B3^3)/C3)/1000000</f>
+      <c r="D3" s="8">
+        <f t="shared" si="0"/>
         <v>255.9836170485089</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="4">
         <v>1400</v>
       </c>
       <c r="C4" s="4">
         <v>22.109000000000002</v>
       </c>
-      <c r="D4" s="13">
-        <f>(2*(B4^3)/C4)/1000000</f>
+      <c r="D4" s="8">
+        <f t="shared" si="0"/>
         <v>248.22470487131935</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="4">
         <v>1800</v>
       </c>
       <c r="C5" s="4">
         <v>49.411999999999999</v>
       </c>
-      <c r="D5" s="13">
-        <f>(2*(B5^3)/C5)/1000000</f>
+      <c r="D5" s="8">
+        <f t="shared" si="0"/>
         <v>236.05601878086296</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="4">
         <v>2200</v>
       </c>
       <c r="C6" s="4">
         <v>94.471999999999994</v>
       </c>
-      <c r="D6" s="13">
-        <f>(2*(B6^3)/C6)/1000000</f>
+      <c r="D6" s="8">
+        <f t="shared" si="0"/>
         <v>225.42128884748919</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="4">
         <v>2600</v>
       </c>
       <c r="C7" s="4">
         <v>189.19900000000001</v>
       </c>
-      <c r="D7" s="13">
-        <f>(2*(B7^3)/C7)/1000000</f>
+      <c r="D7" s="8">
+        <f t="shared" si="0"/>
         <v>185.79379383611962</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9">
+      <c r="A8" s="12"/>
+      <c r="B8" s="6">
         <v>3000</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="6">
         <v>286.88600000000002</v>
       </c>
-      <c r="D8" s="14">
-        <f>(2*(B8^3)/C8)/1000000</f>
+      <c r="D8" s="9">
+        <f t="shared" si="0"/>
         <v>188.22807665762704</v>
       </c>
     </row>
@@ -1467,69 +1471,69 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>600</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>2.0609999999999999</v>
       </c>
-      <c r="D11" s="10">
-        <f>(2*(B11^3)/C11)/1000000</f>
+      <c r="D11" s="7">
+        <f t="shared" ref="D11:D17" si="1">(2*(B11^3)/C11)/1000000</f>
         <v>209.60698689956331</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="4">
         <v>1000</v>
       </c>
       <c r="C12" s="4">
         <v>12.817</v>
       </c>
-      <c r="D12" s="13">
-        <f>(2*(B12^3)/C12)/1000000</f>
+      <c r="D12" s="8">
+        <f t="shared" si="1"/>
         <v>156.04275571506594</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="4">
         <v>1400</v>
       </c>
       <c r="C13" s="4">
         <v>37.072000000000003</v>
       </c>
-      <c r="D13" s="13">
-        <f>(2*(B13^3)/C13)/1000000</f>
+      <c r="D13" s="8">
+        <f t="shared" si="1"/>
         <v>148.03625377643505</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
+      <c r="A14" s="11"/>
       <c r="B14" s="4">
         <v>1800</v>
       </c>
       <c r="C14" s="4">
         <v>86.454999999999998</v>
       </c>
-      <c r="D14" s="13">
-        <f>(2*(B14^3)/C14)/1000000</f>
+      <c r="D14" s="8">
+        <f t="shared" si="1"/>
         <v>134.91411717078248</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
+      <c r="A15" s="11"/>
       <c r="B15" s="4">
         <v>2200</v>
       </c>
       <c r="C15" s="4">
         <v>175.66900000000001</v>
       </c>
-      <c r="D15" s="13">
-        <f>(2*(B15^3)/C15)/1000000</f>
+      <c r="D15" s="8">
+        <f t="shared" si="1"/>
         <v>121.22799127905321</v>
       </c>
       <c r="F15" s="3"/>
@@ -1538,15 +1542,15 @@
       <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="4">
         <v>2600</v>
       </c>
       <c r="C16" s="4">
         <v>294.61099999999999</v>
       </c>
-      <c r="D16" s="13">
-        <f>(2*(B16^3)/C16)/1000000</f>
+      <c r="D16" s="8">
+        <f t="shared" si="1"/>
         <v>119.31665823747248</v>
       </c>
       <c r="F16" s="3"/>
@@ -1555,15 +1559,15 @@
       <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9">
+      <c r="A17" s="12"/>
+      <c r="B17" s="6">
         <v>3000</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="6">
         <v>463.59899999999999</v>
       </c>
-      <c r="D17" s="14">
-        <f>(2*(B17^3)/C17)/1000000</f>
+      <c r="D17" s="9">
+        <f t="shared" si="1"/>
         <v>116.47997515093863</v>
       </c>
       <c r="F17" s="3"/>
@@ -1613,11 +1617,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1658,97 +1662,97 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>600</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="10" t="e">
-        <f>(2*(B2^3)/C2)/1000000</f>
+      <c r="C2" s="5"/>
+      <c r="D2" s="7" t="e">
+        <f t="shared" ref="D2:D8" si="0">(2*(B2^3)/C2)/1000000</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="5">
         <v>4000</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="10" t="e">
+      <c r="H2" s="5"/>
+      <c r="I2" s="7" t="e">
         <f>(2*(G2^3)/H2)/1000000</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="4">
         <v>1000</v>
       </c>
       <c r="C3" s="4"/>
-      <c r="D3" s="13" t="e">
-        <f>(2*(B3^3)/C3)/1000000</f>
+      <c r="D3" s="8" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="11"/>
       <c r="G3" s="4">
         <v>6000</v>
       </c>
       <c r="H3" s="4"/>
-      <c r="I3" s="13" t="e">
+      <c r="I3" s="8" t="e">
         <f>(2*(G3^3)/H3)/1000000</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="4">
         <v>1400</v>
       </c>
       <c r="C4" s="4"/>
-      <c r="D4" s="13" t="e">
-        <f>(2*(B4^3)/C4)/1000000</f>
+      <c r="D4" s="8" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="11"/>
       <c r="G4" s="4">
         <v>8000</v>
       </c>
       <c r="H4" s="4"/>
-      <c r="I4" s="13" t="e">
+      <c r="I4" s="8" t="e">
         <f>(2*(G4^3)/H4)/1000000</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="4">
         <v>1800</v>
       </c>
       <c r="C5" s="4"/>
-      <c r="D5" s="13" t="e">
-        <f>(2*(B5^3)/C5)/1000000</f>
+      <c r="D5" s="8" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="9">
+      <c r="F5" s="12"/>
+      <c r="G5" s="6">
         <v>10000</v>
       </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="14" t="e">
+      <c r="H5" s="6"/>
+      <c r="I5" s="9" t="e">
         <f>(2*(G5^3)/H5)/1000000</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="4">
         <v>2200</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="13" t="e">
-        <f>(2*(B6^3)/C6)/1000000</f>
+      <c r="D6" s="8" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F6" s="3"/>
@@ -1757,13 +1761,13 @@
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="4">
         <v>2600</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="13" t="e">
-        <f>(2*(B7^3)/C7)/1000000</f>
+      <c r="D7" s="8" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F7" s="3"/>
@@ -1772,13 +1776,13 @@
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9">
+      <c r="A8" s="12"/>
+      <c r="B8" s="6">
         <v>3000</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="14" t="e">
-        <f>(2*(B8^3)/C8)/1000000</f>
+      <c r="C8" s="6"/>
+      <c r="D8" s="9" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F8" s="3"/>
@@ -1823,142 +1827,146 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>600</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>0.39300000000000002</v>
       </c>
-      <c r="D11" s="10">
-        <f>(2*(B11^3)/C11)/1000000</f>
+      <c r="D11" s="7">
+        <f t="shared" ref="D11:D17" si="1">(2*(B11^3)/C11)/1000000</f>
         <v>1099.2366412213739</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="5">
         <v>4000</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="5">
         <v>164.512</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="7">
         <f>(2*(G11^3)/H11)/1000000</f>
         <v>778.05874343512937</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="4">
         <v>1000</v>
       </c>
       <c r="C12" s="4">
         <v>2.83</v>
       </c>
-      <c r="D12" s="13">
-        <f>(2*(B12^3)/C12)/1000000</f>
+      <c r="D12" s="8">
+        <f t="shared" si="1"/>
         <v>706.71378091872782</v>
       </c>
-      <c r="F12" s="12"/>
+      <c r="F12" s="11"/>
       <c r="G12" s="4">
         <v>6000</v>
       </c>
       <c r="H12" s="4">
         <v>531.27300000000002</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12" s="8">
         <f>(2*(G12^3)/H12)/1000000</f>
         <v>813.14126635458604</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="4">
         <v>1400</v>
       </c>
       <c r="C13" s="4">
         <v>7.4729999999999999</v>
       </c>
-      <c r="D13" s="13">
-        <f>(2*(B13^3)/C13)/1000000</f>
+      <c r="D13" s="8">
+        <f t="shared" si="1"/>
         <v>734.37709086043094</v>
       </c>
-      <c r="F13" s="12"/>
+      <c r="F13" s="11"/>
       <c r="G13" s="4">
         <v>8000</v>
       </c>
-      <c r="H13" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="I13" s="17"/>
+      <c r="H13" s="4">
+        <v>1024.972</v>
+      </c>
+      <c r="I13" s="8">
+        <f>(2*(G13^3)/H13)/1000000</f>
+        <v>999.0516814117849</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
+      <c r="A14" s="11"/>
       <c r="B14" s="4">
         <v>1800</v>
       </c>
       <c r="C14" s="4">
         <v>19.247</v>
       </c>
-      <c r="D14" s="13">
-        <f>(2*(B14^3)/C14)/1000000</f>
+      <c r="D14" s="8">
+        <f t="shared" si="1"/>
         <v>606.01652205538528</v>
       </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="9">
+      <c r="F14" s="12"/>
+      <c r="G14" s="6">
         <v>10000</v>
       </c>
-      <c r="H14" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="I14" s="19"/>
+      <c r="H14" s="6">
+        <v>1762.0840000000001</v>
+      </c>
+      <c r="I14" s="9">
+        <f>(2*(G14^3)/H14)/1000000</f>
+        <v>1135.0196698908792</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
+      <c r="A15" s="11"/>
       <c r="B15" s="4">
         <v>2200</v>
       </c>
       <c r="C15" s="4">
         <v>27.372</v>
       </c>
-      <c r="D15" s="13">
-        <f>(2*(B15^3)/C15)/1000000</f>
+      <c r="D15" s="8">
+        <f t="shared" si="1"/>
         <v>778.02133567148917</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="4">
         <v>2600</v>
       </c>
       <c r="C16" s="4">
         <v>45.738999999999997</v>
       </c>
-      <c r="D16" s="13">
-        <f>(2*(B16^3)/C16)/1000000</f>
+      <c r="D16" s="8">
+        <f t="shared" si="1"/>
         <v>768.53451102997451</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9">
+      <c r="A17" s="12"/>
+      <c r="B17" s="6">
         <v>3000</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="6">
         <v>69.876000000000005</v>
       </c>
-      <c r="D17" s="14">
-        <f>(2*(B17^3)/C17)/1000000</f>
+      <c r="D17" s="9">
+        <f t="shared" si="1"/>
         <v>772.79752704791338</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
+  <mergeCells count="4">
     <mergeCell ref="A11:A17"/>
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="F2:F5"/>
@@ -1966,6 +1974,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Lab1/docs/Statistics.xlsx
+++ b/Lab1/docs/Statistics.xlsx
@@ -328,6 +328,2030 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>C/C++</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Exercise 2'!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Exercise 2'!$D$2:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1380.1916932907347</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1041.1244143675169</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1017.992951214988</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>977.12993214375467</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1013.9021138830699</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>998.52289512555387</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>997.89333629005444</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Java</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Exercise 2'!$B$11:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Exercise 2'!$D$11:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1099.2366412213739</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>706.71378091872782</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>734.37709086043094</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>606.01652205538528</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>778.02133567148917</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>768.53451102997451</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>772.79752704791338</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-401055952"/>
+        <c:axId val="-401055408"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-401055952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-401055408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-401055408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Capacidade</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.0555555555555555E-2"/>
+              <c:y val="0.27164698162729661"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-401055952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>C/C++</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Exercise 2'!$G$2:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Exercise 2'!$I$2:$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>998.59572476205324</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1144.7044171811654</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1132.5153564216052</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Java</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Exercise 2'!$G$11:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Exercise 2'!$I$11:$I$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>778.05874343512937</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>813.14126635458604</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>999.0516814117849</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1135.0196698908792</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-401059216"/>
+        <c:axId val="-401054320"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-401059216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-401054320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-401054320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-401059216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -700,10 +2724,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>428624</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2419351" cy="461963"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
@@ -715,7 +2739,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5753099" y="3481387"/>
+              <a:off x="11839574" y="242887"/>
               <a:ext cx="2419351" cy="461963"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -903,7 +2927,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5753099" y="3481387"/>
+              <a:off x="11839574" y="242887"/>
               <a:ext cx="2419351" cy="461963"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -949,16 +2973,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1257300</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -967,7 +2991,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8658225" y="3124200"/>
+          <a:off x="12058650" y="952500"/>
           <a:ext cx="2085975" cy="1076324"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1057,6 +3081,68 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1409700</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1400175</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1620,8 +3706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1668,10 +3754,12 @@
       <c r="B2" s="5">
         <v>600</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="7" t="e">
+      <c r="C2" s="5">
+        <v>0.313</v>
+      </c>
+      <c r="D2" s="7">
         <f t="shared" ref="D2:D8" si="0">(2*(B2^3)/C2)/1000000</f>
-        <v>#DIV/0!</v>
+        <v>1380.1916932907347</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>1</v>
@@ -1679,10 +3767,12 @@
       <c r="G2" s="5">
         <v>4000</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="7" t="e">
+      <c r="H2" s="5">
+        <v>128.18</v>
+      </c>
+      <c r="I2" s="7">
         <f>(2*(G2^3)/H2)/1000000</f>
-        <v>#DIV/0!</v>
+        <v>998.59572476205324</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1690,19 +3780,23 @@
       <c r="B3" s="4">
         <v>1000</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="8" t="e">
+      <c r="C3" s="4">
+        <v>1.921</v>
+      </c>
+      <c r="D3" s="8">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>1041.1244143675169</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="4">
         <v>6000</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="8" t="e">
+      <c r="H3" s="4">
+        <v>377.39</v>
+      </c>
+      <c r="I3" s="8">
         <f>(2*(G3^3)/H3)/1000000</f>
-        <v>#DIV/0!</v>
+        <v>1144.7044171811654</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1710,19 +3804,23 @@
       <c r="B4" s="4">
         <v>1400</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="8" t="e">
+      <c r="C4" s="4">
+        <v>5.391</v>
+      </c>
+      <c r="D4" s="8">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>1017.992951214988</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="4">
         <v>8000</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="8" t="e">
+      <c r="H4" s="4">
+        <v>904.18200000000002</v>
+      </c>
+      <c r="I4" s="8">
         <f>(2*(G4^3)/H4)/1000000</f>
-        <v>#DIV/0!</v>
+        <v>1132.5153564216052</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1730,10 +3828,12 @@
       <c r="B5" s="4">
         <v>1800</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="8" t="e">
+      <c r="C5" s="4">
+        <v>11.936999999999999</v>
+      </c>
+      <c r="D5" s="8">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>977.12993214375467</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="6">
@@ -1750,10 +3850,12 @@
       <c r="B6" s="4">
         <v>2200</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="8" t="e">
+      <c r="C6" s="4">
+        <v>21.004000000000001</v>
+      </c>
+      <c r="D6" s="8">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>1013.9021138830699</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -1765,10 +3867,12 @@
       <c r="B7" s="4">
         <v>2600</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="8" t="e">
+      <c r="C7" s="4">
+        <v>35.204000000000001</v>
+      </c>
+      <c r="D7" s="8">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>998.52289512555387</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1780,10 +3884,12 @@
       <c r="B8" s="6">
         <v>3000</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="9" t="e">
+      <c r="C8" s="6">
+        <v>54.113999999999997</v>
+      </c>
+      <c r="D8" s="9">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>997.89333629005444</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>

--- a/Lab1/docs/Statistics.xlsx
+++ b/Lab1/docs/Statistics.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Exercise 1" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="Exercise 3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -357,32 +358,68 @@
             <c:v>C/C++</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="9525" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="6"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Exercise 2'!$B$2:$B$8</c:f>
+              <c:f>'Exercise 1'!$B$2:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -412,30 +449,30 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Exercise 2'!$D$2:$D$8</c:f>
+              <c:f>'Exercise 1'!$D$2:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1380.1916932907347</c:v>
+                  <c:v>304.43974630021143</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1041.1244143675169</c:v>
+                  <c:v>255.9836170485089</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1017.992951214988</c:v>
+                  <c:v>248.22470487131935</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>977.12993214375467</c:v>
+                  <c:v>236.05601878086296</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1013.9021138830699</c:v>
+                  <c:v>225.42128884748919</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>998.52289512555387</c:v>
+                  <c:v>185.79379383611962</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>997.89333629005444</c:v>
+                  <c:v>188.22807665762704</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -449,32 +486,68 @@
             <c:v>Java</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="9525" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="6"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
                 <a:solidFill>
                   <a:schemeClr val="accent2"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Exercise 2'!$B$11:$B$17</c:f>
+              <c:f>'Exercise 1'!$B$11:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -504,30 +577,30 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Exercise 2'!$D$11:$D$17</c:f>
+              <c:f>'Exercise 1'!$D$11:$D$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1099.2366412213739</c:v>
+                  <c:v>209.60698689956331</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>706.71378091872782</c:v>
+                  <c:v>156.04275571506594</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>734.37709086043094</c:v>
+                  <c:v>148.03625377643505</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>606.01652205538528</c:v>
+                  <c:v>134.91411717078248</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>778.02133567148917</c:v>
+                  <c:v>121.22799127905321</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>768.53451102997451</c:v>
+                  <c:v>119.31665823747248</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>772.79752704791338</c:v>
+                  <c:v>116.47997515093863</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -542,11 +615,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-401055952"/>
-        <c:axId val="-401055408"/>
+        <c:axId val="-523104784"/>
+        <c:axId val="-523104176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-401055952"/>
+        <c:axId val="-523104784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -556,9 +629,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -573,11 +646,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -585,7 +657,10 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="pt-PT"/>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>n</a:t>
+                </a:r>
               </a:p>
             </c:rich>
           </c:tx>
@@ -603,11 +678,10 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -627,12 +701,10 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -643,9 +715,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -656,12 +727,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-401055408"/>
+        <c:crossAx val="-523104176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-401055408"/>
+        <c:axId val="-523104176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -671,9 +742,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -688,11 +759,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -728,11 +798,10 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -752,12 +821,10 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -768,9 +835,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -781,7 +847,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-401055952"/>
+        <c:crossAx val="-523104784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -811,9 +877,8 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -830,17 +895,28 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -889,67 +965,121 @@
             <c:v>C/C++</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="9525" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="6"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Exercise 2'!$G$2:$G$5</c:f>
+              <c:f>'Exercise 2'!$B$2:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>4000</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8000</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10000</c:v>
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Exercise 2'!$I$2:$I$5</c:f>
+              <c:f>'Exercise 2'!$D$2:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>998.59572476205324</c:v>
+                  <c:v>1380.1916932907347</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1144.7044171811654</c:v>
+                  <c:v>1041.1244143675169</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1132.5153564216052</c:v>
+                  <c:v>1017.992951214988</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>977.12993214375467</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1013.9021138830699</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>998.52289512555387</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>997.89333629005444</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -963,67 +1093,121 @@
             <c:v>Java</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="9525" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="6"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
                 <a:solidFill>
                   <a:schemeClr val="accent2"/>
                 </a:solidFill>
+                <a:round/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Exercise 2'!$G$11:$G$14</c:f>
+              <c:f>'Exercise 2'!$B$11:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>4000</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6000</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8000</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10000</c:v>
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Exercise 2'!$I$11:$I$14</c:f>
+              <c:f>'Exercise 2'!$D$11:$D$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>778.05874343512937</c:v>
+                  <c:v>1099.2366412213739</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>813.14126635458604</c:v>
+                  <c:v>706.71378091872782</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>999.0516814117849</c:v>
+                  <c:v>734.37709086043094</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1135.0196698908792</c:v>
+                  <c:v>606.01652205538528</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>778.02133567148917</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>768.53451102997451</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>772.79752704791338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1038,11 +1222,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-401059216"/>
-        <c:axId val="-401054320"/>
+        <c:axId val="-523109648"/>
+        <c:axId val="-523109040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-401059216"/>
+        <c:axId val="-523109648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1052,9 +1236,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1062,6 +1246,60 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>n</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1070,12 +1308,10 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1086,9 +1322,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1099,12 +1334,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-401054320"/>
+        <c:crossAx val="-523109040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-401054320"/>
+        <c:axId val="-523109040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1114,9 +1349,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1124,6 +1359,67 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Capacidade</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.0555555555555555E-2"/>
+              <c:y val="0.27164698162729661"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1132,12 +1428,10 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1148,9 +1442,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1161,7 +1454,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-401059216"/>
+        <c:crossAx val="-523109648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1191,9 +1484,8 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1210,17 +1502,592 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>C/C++</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Exercise 2'!$G$2:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Exercise 2'!$I$2:$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>998.59572476205324</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1144.7044171811654</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1132.5153564216052</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Java</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Exercise 2'!$G$11:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Exercise 2'!$I$11:$I$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>778.05874343512937</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>813.14126635458604</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>999.0516814117849</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1135.0196698908792</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-523031296"/>
+        <c:axId val="-523018528"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-523031296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>n</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-523018528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-523018528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Capacidade</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-523031296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -1322,63 +2189,107 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
     </cs:spPr>
     <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
@@ -1387,9 +2298,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="lt1">
         <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1408,14 +2318,6 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -1424,20 +2326,20 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -1446,48 +2348,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1497,27 +2361,63 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPointWireframe>
   <cs:dataTable>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1536,18 +2436,62 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -1557,194 +2501,154 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
   </cs:seriesLine>
   <cs:title>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1760,7 +2664,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1769,9 +2673,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1787,36 +2690,32 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1828,73 +2727,71 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
     </cs:spPr>
     <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
@@ -1903,9 +2800,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="lt1">
         <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1924,14 +2820,6 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -1940,20 +2828,20 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="3">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -1962,48 +2850,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2013,27 +2863,63 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPointWireframe>
   <cs:dataTable>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2052,18 +2938,62 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -2073,194 +3003,154 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
   </cs:seriesLine>
   <cs:title>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2276,7 +3166,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2285,56 +3175,553 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2344,12 +3731,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -2358,10 +3739,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>523874</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>800099</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2419351" cy="461963"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
@@ -2373,7 +3754,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6448424" y="319087"/>
+              <a:off x="10067924" y="328612"/>
               <a:ext cx="2419351" cy="461963"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2561,7 +3942,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6448424" y="319087"/>
+              <a:off x="10067924" y="328612"/>
               <a:ext cx="2419351" cy="461963"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2607,16 +3988,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>990600</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:rowOff>161926</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2625,7 +4006,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6581775" y="1000126"/>
+          <a:off x="10258425" y="1123951"/>
           <a:ext cx="2085975" cy="1076324"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2715,6 +4096,38 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3116,15 +4529,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1400175</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>1343025</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3413,8 +4826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3706,8 +5119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Lab1/docs/Statistics.xlsx
+++ b/Lab1/docs/Statistics.xlsx
@@ -9,15 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Exercise 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Exercise 2" sheetId="2" r:id="rId2"/>
-    <sheet name="Exercise 3" sheetId="3" r:id="rId3"/>
+    <sheet name="Normal" sheetId="1" r:id="rId1"/>
+    <sheet name="Otimizado" sheetId="2" r:id="rId2"/>
+    <sheet name="Otimizado com Paralelismo" sheetId="3" r:id="rId3"/>
+    <sheet name="Comparação Global" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="17">
   <si>
     <t>Linguagem</t>
   </si>
@@ -79,6 +79,52 @@
   </si>
   <si>
     <t>Capacidade [MFLOPS/s]</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>C/C++
+Paralelismo
+OpenMP</t>
+  </si>
+  <si>
+    <t>t [s]
+1 Thread</t>
+  </si>
+  <si>
+    <t>Capacidade [MFLOPS/s]
+1 Thread</t>
+  </si>
+  <si>
+    <t>t [s]
+2 Threads</t>
+  </si>
+  <si>
+    <t>Capacidade [MFLOPS/s]
+2 Threads</t>
+  </si>
+  <si>
+    <t>t [s]
+3 Threads</t>
+  </si>
+  <si>
+    <t>Capacidade [MFLOPS/s]
+3 Threads</t>
+  </si>
+  <si>
+    <t>t [s]
+4 Threads</t>
+  </si>
+  <si>
+    <t>Capacidade [MFLOPS/s]
+4 Threads</t>
+  </si>
+  <si>
+    <t>C/C++
+Paralelismo
+explicíto
+"com std::thread"</t>
   </si>
 </sst>
 </file>
@@ -115,7 +161,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -128,8 +174,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -272,11 +324,145 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -314,6 +500,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,7 +660,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Exercise 1'!$B$2:$B$8</c:f>
+              <c:f>Normal!$B$2:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -449,7 +690,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Exercise 1'!$D$2:$D$8</c:f>
+              <c:f>Normal!$D$2:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -547,7 +788,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Exercise 1'!$B$11:$B$17</c:f>
+              <c:f>Normal!$B$11:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -577,7 +818,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Exercise 1'!$D$11:$D$17</c:f>
+              <c:f>Normal!$D$11:$D$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -615,11 +856,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-523104784"/>
-        <c:axId val="-523104176"/>
+        <c:axId val="914414224"/>
+        <c:axId val="914423952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-523104784"/>
+        <c:axId val="914414224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -664,7 +905,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -727,12 +967,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-523104176"/>
+        <c:crossAx val="914423952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-523104176"/>
+        <c:axId val="914423952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -847,7 +1087,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-523104784"/>
+        <c:crossAx val="914414224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -861,7 +1101,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -952,6 +1191,78 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>Otimizado</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-PT" baseline="0"/>
+              <a:t> - Iterações de 400</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1026,7 +1337,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Exercise 2'!$B$2:$B$8</c:f>
+              <c:f>Otimizado!$B$2:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1056,7 +1367,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Exercise 2'!$D$2:$D$8</c:f>
+              <c:f>Otimizado!$D$2:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1154,7 +1465,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Exercise 2'!$B$11:$B$17</c:f>
+              <c:f>Otimizado!$B$11:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1184,7 +1495,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Exercise 2'!$D$11:$D$17</c:f>
+              <c:f>Otimizado!$D$11:$D$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1222,11 +1533,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-523109648"/>
-        <c:axId val="-523109040"/>
+        <c:axId val="914420912"/>
+        <c:axId val="914423344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-523109648"/>
+        <c:axId val="914420912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1271,7 +1582,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1334,12 +1644,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-523109040"/>
+        <c:crossAx val="914423344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-523109040"/>
+        <c:axId val="914423344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1454,7 +1764,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-523109648"/>
+        <c:crossAx val="914420912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1468,7 +1778,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1559,6 +1868,84 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:srgbClr val="000000">
+                      <a:alpha val="40000"/>
+                    </a:srgbClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
+              <a:t>Otimizado - Iterações de 2000</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-PT">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1633,7 +2020,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Exercise 2'!$G$2:$G$5</c:f>
+              <c:f>Otimizado!$G$2:$G$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1654,7 +2041,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Exercise 2'!$I$2:$I$5</c:f>
+              <c:f>Otimizado!$I$2:$I$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1668,7 +2055,7 @@
                   <c:v>1132.5153564216052</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1260.2505630169389</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1743,7 +2130,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Exercise 2'!$G$11:$G$14</c:f>
+              <c:f>Otimizado!$G$11:$G$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1764,7 +2151,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Exercise 2'!$I$11:$I$14</c:f>
+              <c:f>Otimizado!$I$11:$I$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1793,11 +2180,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-523031296"/>
-        <c:axId val="-523018528"/>
+        <c:axId val="914409360"/>
+        <c:axId val="914419088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-523031296"/>
+        <c:axId val="914409360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1842,7 +2229,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1905,12 +2291,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-523018528"/>
+        <c:crossAx val="914419088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-523018528"/>
+        <c:axId val="914419088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1955,7 +2341,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2018,7 +2403,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-523031296"/>
+        <c:crossAx val="914409360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2032,7 +2417,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2088,6 +2472,3251 @@
     </a:gradFill>
     <a:ln>
       <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>C/C++ com Paralelismo</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>OpenMP - 1 Thread</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('Otimizado com Paralelismo'!$B$2:$B$8,'Otimizado com Paralelismo'!$B$10:$B$13)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('Otimizado com Paralelismo'!$D$2:$D$8,'Otimizado com Paralelismo'!$D$10:$D$13)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>429.42345924453281</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>413.56492969396191</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>412.10482841480814</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>412.38862961391607</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>406.4277262490935</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>404.85568838827083</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>405.18030523582996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>405.23769723678549</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>405.18562566475759</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>438.48173984758472</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>OpenMP - 2 Threads</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent3">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('Otimizado com Paralelismo'!$B$2:$B$8,'Otimizado com Paralelismo'!$B$10:$B$13)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('Otimizado com Paralelismo'!$F$2:$F$8,'Otimizado com Paralelismo'!$F$10:$F$13)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>864</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>829.87551867219918</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>821.06523040095749</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>819.96485061511419</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>807.92139307257469</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>796.70005892751919</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>801.35339684801011</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>OpenMP - 3 Threads</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent4">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('Otimizado com Paralelismo'!$B$2:$B$8,'Otimizado com Paralelismo'!$B$10:$B$13)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('Otimizado com Paralelismo'!$H$2:$H$8,'Otimizado com Paralelismo'!$H$10:$H$13)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1289.5522388059699</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1226.2415695892091</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1207.215134183898</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1187.4172859615187</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1163.5251051740152</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1152.2223679035008</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1133.0018253918297</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>OpenMP - 4 Threads</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent5">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('Otimizado com Paralelismo'!$B$2:$B$8,'Otimizado com Paralelismo'!$B$10:$B$13)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('Otimizado com Paralelismo'!$J$2:$J$8,'Otimizado com Paralelismo'!$J$10:$J$13)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1687.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1574.8031496062993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1460.3512506652473</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1435.0393700787401</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1389.1715590345727</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1372.5888324873097</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1358.2172141455808</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1340.1597721728388</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1319.9868001319985</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1310.3593890961206</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1508.509502101354</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>pThread - 1 Thread</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('Otimizado com Paralelismo'!$B$16:$B$22,'Otimizado com Paralelismo'!$B$24:$B$27)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('Otimizado com Paralelismo'!$D$16:$D$22,'Otimizado com Paralelismo'!$D$24:$D$27)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>pThread - 2 Threads</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent6">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('Otimizado com Paralelismo'!$B$16:$B$22,'Otimizado com Paralelismo'!$B$24:$B$27)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('Otimizado com Paralelismo'!$F$16:$F$22,'Otimizado com Paralelismo'!$F$24:$F$27)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>pThread - 3 Threads</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('Otimizado com Paralelismo'!$B$16:$B$22,'Otimizado com Paralelismo'!$B$24:$B$27)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('Otimizado com Paralelismo'!$H$16:$H$22,'Otimizado com Paralelismo'!$H$24:$H$27)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>pThread - 4 Threads</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('Otimizado com Paralelismo'!$B$16:$B$22,'Otimizado com Paralelismo'!$B$24:$B$27)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('Otimizado com Paralelismo'!$J$16:$J$22,'Otimizado com Paralelismo'!$J$24:$J$27)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="914439152"/>
+        <c:axId val="914425776"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="914439152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>n</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="914425776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="914425776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Capacidade</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="914439152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>C/C++ com Paralelismo - OpenMP</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1 Thread</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('Otimizado com Paralelismo'!$B$2:$B$8,'Otimizado com Paralelismo'!$B$10:$B$13)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('Otimizado com Paralelismo'!$D$2:$D$8,'Otimizado com Paralelismo'!$D$10:$D$13)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>429.42345924453281</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>413.56492969396191</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>412.10482841480814</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>412.38862961391607</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>406.4277262490935</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>404.85568838827083</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>405.18030523582996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>405.23769723678549</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>405.18562566475759</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>438.48173984758472</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2 Threads</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent3">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('Otimizado com Paralelismo'!$B$2:$B$8,'Otimizado com Paralelismo'!$B$10:$B$13)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('Otimizado com Paralelismo'!$F$2:$F$8,'Otimizado com Paralelismo'!$F$10:$F$13)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>864</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>829.87551867219918</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>821.06523040095749</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>819.96485061511419</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>807.92139307257469</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>796.70005892751919</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>801.35339684801011</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>3 Threads</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent4">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('Otimizado com Paralelismo'!$B$2:$B$8,'Otimizado com Paralelismo'!$B$10:$B$13)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('Otimizado com Paralelismo'!$H$2:$H$8,'Otimizado com Paralelismo'!$H$10:$H$13)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1289.5522388059699</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1226.2415695892091</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1207.215134183898</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1187.4172859615187</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1163.5251051740152</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1152.2223679035008</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1133.0018253918297</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>4 Threads</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent5">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('Otimizado com Paralelismo'!$B$2:$B$8,'Otimizado com Paralelismo'!$B$10:$B$13)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('Otimizado com Paralelismo'!$J$2:$J$8,'Otimizado com Paralelismo'!$J$10:$J$13)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1687.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1574.8031496062993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1460.3512506652473</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1435.0393700787401</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1389.1715590345727</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1372.5888324873097</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1358.2172141455808</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1340.1597721728388</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1319.9868001319985</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1310.3593890961206</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1508.509502101354</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="914428208"/>
+        <c:axId val="914428816"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="914428208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>n</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="914428816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="914428816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Capacidade</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="914428208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>C/C++ com Paralelismo - </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-PT" baseline="0"/>
+              <a:t>std::t</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>hread</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1 Thread</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('Otimizado com Paralelismo'!$B$16:$B$22,'Otimizado com Paralelismo'!$B$24:$B$27)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('Otimizado com Paralelismo'!$D$16:$D$22,'Otimizado com Paralelismo'!$D$24:$D$27)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2 Threads</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent6">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('Otimizado com Paralelismo'!$B$16:$B$22,'Otimizado com Paralelismo'!$B$24:$B$27)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('Otimizado com Paralelismo'!$F$16:$F$22,'Otimizado com Paralelismo'!$F$24:$F$27)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>3 Threads</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('Otimizado com Paralelismo'!$B$16:$B$22,'Otimizado com Paralelismo'!$B$24:$B$27)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('Otimizado com Paralelismo'!$H$16:$H$22,'Otimizado com Paralelismo'!$H$24:$H$27)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>4 Threads</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('Otimizado com Paralelismo'!$B$16:$B$22,'Otimizado com Paralelismo'!$B$24:$B$27)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('Otimizado com Paralelismo'!$J$16:$J$22,'Otimizado com Paralelismo'!$J$24:$J$27)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="914414832"/>
+        <c:axId val="914434288"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="914414832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>n</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="914434288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="914434288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Capacidade</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="914414832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -2229,6 +5858,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
   <cs:axisTitle>
@@ -3730,6 +7479,1620 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -4561,6 +9924,107 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4826,7 +10290,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -4857,7 +10321,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="5">
@@ -4872,7 +10336,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
+      <c r="A3" s="24"/>
       <c r="B3" s="4">
         <v>1000</v>
       </c>
@@ -4885,7 +10349,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="4">
         <v>1400</v>
       </c>
@@ -4898,7 +10362,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="4">
         <v>1800</v>
       </c>
@@ -4911,7 +10375,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="4">
         <v>2200</v>
       </c>
@@ -4924,7 +10388,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="4">
         <v>2600</v>
       </c>
@@ -4937,7 +10401,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
+      <c r="A8" s="25"/>
       <c r="B8" s="6">
         <v>3000</v>
       </c>
@@ -4970,7 +10434,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="23" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="5">
@@ -4985,7 +10449,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="4">
         <v>1000</v>
       </c>
@@ -4998,7 +10462,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="4">
         <v>1400</v>
       </c>
@@ -5011,7 +10475,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="4">
         <v>1800</v>
       </c>
@@ -5024,7 +10488,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
+      <c r="A15" s="24"/>
       <c r="B15" s="4">
         <v>2200</v>
       </c>
@@ -5041,7 +10505,7 @@
       <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="4">
         <v>2600</v>
       </c>
@@ -5058,7 +10522,7 @@
       <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
+      <c r="A17" s="25"/>
       <c r="B17" s="6">
         <v>3000</v>
       </c>
@@ -5119,8 +10583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5161,7 +10625,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="5">
@@ -5174,7 +10638,7 @@
         <f t="shared" ref="D2:D8" si="0">(2*(B2^3)/C2)/1000000</f>
         <v>1380.1916932907347</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="23" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="5">
@@ -5189,7 +10653,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
+      <c r="A3" s="24"/>
       <c r="B3" s="4">
         <v>1000</v>
       </c>
@@ -5200,7 +10664,7 @@
         <f t="shared" si="0"/>
         <v>1041.1244143675169</v>
       </c>
-      <c r="F3" s="11"/>
+      <c r="F3" s="24"/>
       <c r="G3" s="4">
         <v>6000</v>
       </c>
@@ -5213,7 +10677,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="4">
         <v>1400</v>
       </c>
@@ -5224,7 +10688,7 @@
         <f t="shared" si="0"/>
         <v>1017.992951214988</v>
       </c>
-      <c r="F4" s="11"/>
+      <c r="F4" s="24"/>
       <c r="G4" s="4">
         <v>8000</v>
       </c>
@@ -5237,7 +10701,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="4">
         <v>1800</v>
       </c>
@@ -5248,18 +10712,20 @@
         <f t="shared" si="0"/>
         <v>977.12993214375467</v>
       </c>
-      <c r="F5" s="12"/>
+      <c r="F5" s="25"/>
       <c r="G5" s="6">
         <v>10000</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="9" t="e">
+      <c r="H5" s="6">
+        <v>1586.9860000000001</v>
+      </c>
+      <c r="I5" s="9">
         <f>(2*(G5^3)/H5)/1000000</f>
-        <v>#DIV/0!</v>
+        <v>1260.2505630169389</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="4">
         <v>2200</v>
       </c>
@@ -5276,7 +10742,7 @@
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="4">
         <v>2600</v>
       </c>
@@ -5293,7 +10759,7 @@
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
+      <c r="A8" s="25"/>
       <c r="B8" s="6">
         <v>3000</v>
       </c>
@@ -5346,7 +10812,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="23" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="5">
@@ -5359,7 +10825,7 @@
         <f t="shared" ref="D11:D17" si="1">(2*(B11^3)/C11)/1000000</f>
         <v>1099.2366412213739</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="23" t="s">
         <v>4</v>
       </c>
       <c r="G11" s="5">
@@ -5374,7 +10840,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="4">
         <v>1000</v>
       </c>
@@ -5385,7 +10851,7 @@
         <f t="shared" si="1"/>
         <v>706.71378091872782</v>
       </c>
-      <c r="F12" s="11"/>
+      <c r="F12" s="24"/>
       <c r="G12" s="4">
         <v>6000</v>
       </c>
@@ -5398,7 +10864,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="4">
         <v>1400</v>
       </c>
@@ -5409,7 +10875,7 @@
         <f t="shared" si="1"/>
         <v>734.37709086043094</v>
       </c>
-      <c r="F13" s="11"/>
+      <c r="F13" s="24"/>
       <c r="G13" s="4">
         <v>8000</v>
       </c>
@@ -5422,7 +10888,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="11"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="4">
         <v>1800</v>
       </c>
@@ -5433,7 +10899,7 @@
         <f t="shared" si="1"/>
         <v>606.01652205538528</v>
       </c>
-      <c r="F14" s="12"/>
+      <c r="F14" s="25"/>
       <c r="G14" s="6">
         <v>10000</v>
       </c>
@@ -5446,7 +10912,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
+      <c r="A15" s="24"/>
       <c r="B15" s="4">
         <v>2200</v>
       </c>
@@ -5459,7 +10925,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="4">
         <v>2600</v>
       </c>
@@ -5472,7 +10938,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
+      <c r="A17" s="25"/>
       <c r="B17" s="6">
         <v>3000</v>
       </c>
@@ -5499,6 +10965,809 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:A27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="23.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" customWidth="1"/>
+    <col min="10" max="10" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="10">
+        <v>600</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1.006</v>
+      </c>
+      <c r="D2" s="5">
+        <f t="shared" ref="D2:D8" si="0">(2*(B2^3)/C2)/1000000</f>
+        <v>429.42345924453281</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F2" s="5">
+        <f t="shared" ref="F2:F8" si="1">(2*(B2^3)/E2)/1000000</f>
+        <v>864</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="H2" s="5">
+        <f t="shared" ref="H2:H8" si="2">(2*(B2^3)/G2)/1000000</f>
+        <v>1289.5522388059699</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="J2" s="7">
+        <f t="shared" ref="J2:J8" si="3">(2*(B2^3)/I2)/1000000</f>
+        <v>1687.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="27"/>
+      <c r="B3" s="11">
+        <v>1000</v>
+      </c>
+      <c r="C3" s="4">
+        <v>4.8360000000000003</v>
+      </c>
+      <c r="D3" s="4">
+        <f t="shared" si="0"/>
+        <v>413.56492969396191</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2.41</v>
+      </c>
+      <c r="F3" s="4">
+        <f t="shared" si="1"/>
+        <v>829.87551867219918</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1.631</v>
+      </c>
+      <c r="H3" s="4">
+        <f t="shared" si="2"/>
+        <v>1226.2415695892091</v>
+      </c>
+      <c r="I3" s="4">
+        <v>1.27</v>
+      </c>
+      <c r="J3" s="8">
+        <f t="shared" si="3"/>
+        <v>1574.8031496062993</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="27"/>
+      <c r="B4" s="11">
+        <v>1400</v>
+      </c>
+      <c r="C4" s="4">
+        <v>13.317</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" si="0"/>
+        <v>412.10482841480814</v>
+      </c>
+      <c r="E4" s="4">
+        <v>6.6840000000000002</v>
+      </c>
+      <c r="F4" s="4">
+        <f t="shared" si="1"/>
+        <v>821.06523040095749</v>
+      </c>
+      <c r="G4" s="4">
+        <v>4.5460000000000003</v>
+      </c>
+      <c r="H4" s="4">
+        <f t="shared" si="2"/>
+        <v>1207.215134183898</v>
+      </c>
+      <c r="I4" s="4">
+        <v>3.758</v>
+      </c>
+      <c r="J4" s="8">
+        <f t="shared" si="3"/>
+        <v>1460.3512506652473</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="27"/>
+      <c r="B5" s="11">
+        <v>1800</v>
+      </c>
+      <c r="C5" s="4">
+        <v>28.283999999999999</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" si="0"/>
+        <v>412.38862961391607</v>
+      </c>
+      <c r="E5" s="4">
+        <v>14.225</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" si="1"/>
+        <v>819.96485061511419</v>
+      </c>
+      <c r="G5" s="4">
+        <v>9.8230000000000004</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="shared" si="2"/>
+        <v>1187.4172859615187</v>
+      </c>
+      <c r="I5" s="4">
+        <v>8.1280000000000001</v>
+      </c>
+      <c r="J5" s="8">
+        <f t="shared" si="3"/>
+        <v>1435.0393700787401</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="27"/>
+      <c r="B6" s="11">
+        <v>2200</v>
+      </c>
+      <c r="C6" s="4">
+        <v>52.398000000000003</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>406.4277262490935</v>
+      </c>
+      <c r="E6" s="4">
+        <v>26.359000000000002</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="shared" si="1"/>
+        <v>807.92139307257469</v>
+      </c>
+      <c r="G6" s="4">
+        <v>18.303000000000001</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" si="2"/>
+        <v>1163.5251051740152</v>
+      </c>
+      <c r="I6" s="4">
+        <v>15.33</v>
+      </c>
+      <c r="J6" s="8">
+        <f t="shared" si="3"/>
+        <v>1389.1715590345727</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="27"/>
+      <c r="B7" s="11">
+        <v>2600</v>
+      </c>
+      <c r="C7" s="4">
+        <v>86.825999999999993</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>404.85568838827083</v>
+      </c>
+      <c r="E7" s="4">
+        <v>44.122</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="1"/>
+        <v>796.70005892751919</v>
+      </c>
+      <c r="G7" s="4">
+        <v>30.507999999999999</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" si="2"/>
+        <v>1152.2223679035008</v>
+      </c>
+      <c r="I7" s="4">
+        <v>25.61</v>
+      </c>
+      <c r="J7" s="8">
+        <f t="shared" si="3"/>
+        <v>1372.5888324873097</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="27"/>
+      <c r="B8" s="11">
+        <v>3000</v>
+      </c>
+      <c r="C8" s="4">
+        <v>133.274</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>405.18030523582996</v>
+      </c>
+      <c r="E8" s="4">
+        <v>67.385999999999996</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="1"/>
+        <v>801.35339684801011</v>
+      </c>
+      <c r="G8" s="4">
+        <v>47.661000000000001</v>
+      </c>
+      <c r="H8" s="4">
+        <f t="shared" si="2"/>
+        <v>1133.0018253918297</v>
+      </c>
+      <c r="I8" s="4">
+        <v>39.758000000000003</v>
+      </c>
+      <c r="J8" s="8">
+        <f t="shared" si="3"/>
+        <v>1358.2172141455808</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="28"/>
+      <c r="B9" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="28"/>
+      <c r="B10" s="11">
+        <v>4000</v>
+      </c>
+      <c r="C10" s="4">
+        <v>315.86399999999998</v>
+      </c>
+      <c r="D10" s="4">
+        <f>(2*(B10^3)/C10)/1000000</f>
+        <v>405.23769723678549</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4" t="e">
+        <f>(2*(B10^3)/E10)/1000000</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4" t="e">
+        <f>(2*(B10^3)/G10)/1000000</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I10" s="4">
+        <v>95.510999999999996</v>
+      </c>
+      <c r="J10" s="8">
+        <f>(2*(B10^3)/I10)/1000000</f>
+        <v>1340.1597721728388</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="28"/>
+      <c r="B11" s="11">
+        <v>6000</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1066.1780000000001</v>
+      </c>
+      <c r="D11" s="4">
+        <f>(2*(B11^3)/C11)/1000000</f>
+        <v>405.18562566475759</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4" t="e">
+        <f>(2*(B11^3)/E11)/1000000</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4" t="e">
+        <f>(2*(B11^3)/G11)/1000000</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I11" s="4">
+        <v>327.27600000000001</v>
+      </c>
+      <c r="J11" s="8">
+        <f>(2*(B11^3)/I11)/1000000</f>
+        <v>1319.9868001319985</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="28"/>
+      <c r="B12" s="11">
+        <v>8000</v>
+      </c>
+      <c r="C12" s="4">
+        <v>2335.3310000000001</v>
+      </c>
+      <c r="D12" s="4">
+        <f>(2*(B12^3)/C12)/1000000</f>
+        <v>438.48173984758472</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4" t="e">
+        <f>(2*(B12^3)/E12)/1000000</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4" t="e">
+        <f>(2*(B12^3)/G12)/1000000</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I12" s="4">
+        <v>781.46500000000003</v>
+      </c>
+      <c r="J12" s="8">
+        <f>(2*(B12^3)/I12)/1000000</f>
+        <v>1310.3593890961206</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="29"/>
+      <c r="B13" s="12">
+        <v>10000</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6" t="e">
+        <f>(2*(B13^3)/C13)/1000000</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6" t="e">
+        <f>(2*(B13^3)/E13)/1000000</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="e">
+        <f>(2*(B13^3)/G13)/1000000</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I13" s="6">
+        <v>1325.8119999999999</v>
+      </c>
+      <c r="J13" s="9">
+        <f>(2*(B13^3)/I13)/1000000</f>
+        <v>1508.509502101354</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="11">
+        <v>600</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4" t="e">
+        <f>(2*(B16^3)/C16)/1000000</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4" t="e">
+        <f>(2*(B16^3)/E16)/1000000</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4" t="e">
+        <f t="shared" ref="H16:H22" si="4">(2*(B16^3)/G16)/1000000</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="8" t="e">
+        <f t="shared" ref="J16:J22" si="5">(2*(B16^3)/I16)/1000000</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="31"/>
+      <c r="B17" s="11">
+        <v>1000</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4" t="e">
+        <f t="shared" ref="D17:D22" si="6">(2*(B17^3)/C17)/1000000</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4" t="e">
+        <f>(2*(B17^3)/E17)/1000000</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I17" s="4"/>
+      <c r="J17" s="8" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="31"/>
+      <c r="B18" s="11">
+        <v>1400</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4" t="e">
+        <f>(2*(B18^3)/E18)/1000000</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I18" s="4"/>
+      <c r="J18" s="8" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="31"/>
+      <c r="B19" s="11">
+        <v>1800</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4" t="e">
+        <f t="shared" ref="F19" si="7">(2*(D19^3)/E19)/1000000</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I19" s="4"/>
+      <c r="J19" s="8" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="31"/>
+      <c r="B20" s="11">
+        <v>2200</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4" t="e">
+        <f>(2*(B20^3)/E20)/1000000</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I20" s="4"/>
+      <c r="J20" s="8" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="31"/>
+      <c r="B21" s="11">
+        <v>2600</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4" t="e">
+        <f>(2*(B21^3)/E21)/1000000</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I21" s="4"/>
+      <c r="J21" s="8" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="31"/>
+      <c r="B22" s="11">
+        <v>3000</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4" t="e">
+        <f>(2*(B22^3)/E22)/1000000</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I22" s="4"/>
+      <c r="J22" s="8" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="32"/>
+      <c r="B23" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J23" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="32"/>
+      <c r="B24" s="11">
+        <v>4000</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4" t="e">
+        <f>(2*(B24^3)/C24)/1000000</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4" t="e">
+        <f>(2*(B24^3)/E24)/1000000</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4" t="e">
+        <f>(2*(B24^3)/G24)/1000000</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I24" s="4"/>
+      <c r="J24" s="8" t="e">
+        <f>(2*(B24^3)/I24)/1000000</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="32"/>
+      <c r="B25" s="11">
+        <v>6000</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4" t="e">
+        <f>(2*(B25^3)/C25)/1000000</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4" t="e">
+        <f>(2*(B25^3)/E25)/1000000</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4" t="e">
+        <f>(2*(B25^3)/G25)/1000000</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I25" s="4"/>
+      <c r="J25" s="8" t="e">
+        <f>(2*(B25^3)/I25)/1000000</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="32"/>
+      <c r="B26" s="11">
+        <v>8000</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4" t="e">
+        <f>(2*(B26^3)/C26)/1000000</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4" t="e">
+        <f>(2*(B26^3)/E26)/1000000</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4" t="e">
+        <f>(2*(B26^3)/G26)/1000000</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I26" s="4"/>
+      <c r="J26" s="8" t="e">
+        <f>(2*(B26^3)/I26)/1000000</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="33"/>
+      <c r="B27" s="12">
+        <v>10000</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6" t="e">
+        <f>(2*(B27^3)/C27)/1000000</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6" t="e">
+        <f>(2*(B27^3)/E27)/1000000</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6" t="e">
+        <f>(2*(B27^3)/G27)/1000000</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I27" s="6"/>
+      <c r="J27" s="9" t="e">
+        <f>(2*(B27^3)/I27)/1000000</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="A16:A27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Lab1/docs/Statistics.xlsx
+++ b/Lab1/docs/Statistics.xlsx
@@ -121,7 +121,7 @@
 4 Threads</t>
   </si>
   <si>
-    <t>C/C++
+    <t>C++
 Paralelismo
 explicíto
 "com std::thread"</t>
@@ -856,11 +856,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="914414224"/>
-        <c:axId val="914423952"/>
+        <c:axId val="-561767536"/>
+        <c:axId val="-561766448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="914414224"/>
+        <c:axId val="-561767536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -905,6 +905,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -967,12 +968,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="914423952"/>
+        <c:crossAx val="-561766448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="914423952"/>
+        <c:axId val="-561766448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1087,7 +1088,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="914414224"/>
+        <c:crossAx val="-561767536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1101,6 +1102,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1228,6 +1230,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1533,11 +1536,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="914420912"/>
-        <c:axId val="914423344"/>
+        <c:axId val="-561814288"/>
+        <c:axId val="-561807760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="914420912"/>
+        <c:axId val="-561814288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1582,6 +1585,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1644,12 +1648,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="914423344"/>
+        <c:crossAx val="-561807760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="914423344"/>
+        <c:axId val="-561807760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1764,7 +1768,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="914420912"/>
+        <c:crossAx val="-561814288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1778,6 +1782,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1911,6 +1916,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2180,11 +2186,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="914409360"/>
-        <c:axId val="914419088"/>
+        <c:axId val="-561897408"/>
+        <c:axId val="-571809888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="914409360"/>
+        <c:axId val="-561897408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2229,6 +2235,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2291,12 +2298,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="914419088"/>
+        <c:crossAx val="-571809888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="914419088"/>
+        <c:axId val="-571809888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2341,6 +2348,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2403,7 +2411,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="914409360"/>
+        <c:crossAx val="-561897408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2417,6 +2425,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2690,7 +2699,7 @@
                   <c:v>438.48173984758472</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>438.78403291231268</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2811,16 +2820,16 @@
                   <c:v>801.35339684801011</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>803.64654620339786</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>845.21757504729896</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>825.56543976677779</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>881.19701802929103</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2941,13 +2950,13 @@
                   <c:v>1133.0018253918297</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1148.9197461605434</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1207.5471698113208</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1174.0830342708418</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -3091,7 +3100,7 @@
           <c:idx val="1"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>pThread - 1 Thread</c:v>
+            <c:v>std::thread - 1 Thread</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
@@ -3221,7 +3230,7 @@
           <c:idx val="5"/>
           <c:order val="5"/>
           <c:tx>
-            <c:v>pThread - 2 Threads</c:v>
+            <c:v>std::thread - 2 Threads</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
@@ -3351,7 +3360,7 @@
           <c:idx val="6"/>
           <c:order val="6"/>
           <c:tx>
-            <c:v>pThread - 3 Threads</c:v>
+            <c:v>std::thread - 3 Threads</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
@@ -3486,7 +3495,7 @@
           <c:idx val="7"/>
           <c:order val="7"/>
           <c:tx>
-            <c:v>pThread - 4 Threads</c:v>
+            <c:v>std::thread - 4 Threads</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="22225" cap="rnd">
@@ -3625,11 +3634,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="914439152"/>
-        <c:axId val="914425776"/>
+        <c:axId val="-97941392"/>
+        <c:axId val="-97959344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="914439152"/>
+        <c:axId val="-97941392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3724,12 +3733,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="914425776"/>
+        <c:crossAx val="-97959344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="914425776"/>
+        <c:axId val="-97959344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3839,7 +3848,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="914439152"/>
+        <c:crossAx val="-97941392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4119,7 +4128,7 @@
                   <c:v>438.48173984758472</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>438.78403291231268</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4240,16 +4249,16 @@
                   <c:v>801.35339684801011</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>803.64654620339786</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>845.21757504729896</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>825.56543976677779</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>881.19701802929103</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4370,13 +4379,13 @@
                   <c:v>1133.0018253918297</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1148.9197461605434</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1207.5471698113208</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1174.0830342708418</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -4524,11 +4533,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="914428208"/>
-        <c:axId val="914428816"/>
+        <c:axId val="-97970224"/>
+        <c:axId val="-97956080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="914428208"/>
+        <c:axId val="-97970224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4623,12 +4632,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="914428816"/>
+        <c:crossAx val="-97956080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="914428816"/>
+        <c:axId val="-97956080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4738,7 +4747,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="914428208"/>
+        <c:crossAx val="-97970224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5441,11 +5450,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="914414832"/>
-        <c:axId val="914434288"/>
+        <c:axId val="-97940848"/>
+        <c:axId val="-97940304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="914414832"/>
+        <c:axId val="-97940848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5540,12 +5549,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="914434288"/>
+        <c:crossAx val="-97940304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="914434288"/>
+        <c:axId val="-97940304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5655,7 +5664,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="914414832"/>
+        <c:crossAx val="-97940848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10967,8 +10976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:A27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11298,15 +11307,19 @@
         <f>(2*(B10^3)/C10)/1000000</f>
         <v>405.23769723678549</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4" t="e">
+      <c r="E10" s="4">
+        <v>159.274</v>
+      </c>
+      <c r="F10" s="4">
         <f>(2*(B10^3)/E10)/1000000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4" t="e">
+        <v>803.64654620339786</v>
+      </c>
+      <c r="G10" s="4">
+        <v>111.40900000000001</v>
+      </c>
+      <c r="H10" s="4">
         <f>(2*(B10^3)/G10)/1000000</f>
-        <v>#DIV/0!</v>
+        <v>1148.9197461605434</v>
       </c>
       <c r="I10" s="4">
         <v>95.510999999999996</v>
@@ -11328,15 +11341,19 @@
         <f>(2*(B11^3)/C11)/1000000</f>
         <v>405.18562566475759</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4" t="e">
+      <c r="E11" s="4">
+        <v>511.11099999999999</v>
+      </c>
+      <c r="F11" s="4">
         <f>(2*(B11^3)/E11)/1000000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4" t="e">
+        <v>845.21757504729896</v>
+      </c>
+      <c r="G11" s="4">
+        <v>357.75</v>
+      </c>
+      <c r="H11" s="4">
         <f>(2*(B11^3)/G11)/1000000</f>
-        <v>#DIV/0!</v>
+        <v>1207.5471698113208</v>
       </c>
       <c r="I11" s="4">
         <v>327.27600000000001</v>
@@ -11358,15 +11375,19 @@
         <f>(2*(B12^3)/C12)/1000000</f>
         <v>438.48173984758472</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4" t="e">
+      <c r="E12" s="4">
+        <v>1240.3620000000001</v>
+      </c>
+      <c r="F12" s="4">
         <f>(2*(B12^3)/E12)/1000000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4" t="e">
+        <v>825.56543976677779</v>
+      </c>
+      <c r="G12" s="4">
+        <v>872.17</v>
+      </c>
+      <c r="H12" s="4">
         <f>(2*(B12^3)/G12)/1000000</f>
-        <v>#DIV/0!</v>
+        <v>1174.0830342708418</v>
       </c>
       <c r="I12" s="4">
         <v>781.46500000000003</v>
@@ -11381,15 +11402,19 @@
       <c r="B13" s="12">
         <v>10000</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6" t="e">
+      <c r="C13" s="6">
+        <v>4558.0510000000004</v>
+      </c>
+      <c r="D13" s="6">
         <f>(2*(B13^3)/C13)/1000000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6" t="e">
+        <v>438.78403291231268</v>
+      </c>
+      <c r="E13" s="6">
+        <v>2269.64</v>
+      </c>
+      <c r="F13" s="6">
         <f>(2*(B13^3)/E13)/1000000</f>
-        <v>#DIV/0!</v>
+        <v>881.19701802929103</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6" t="e">

--- a/Lab1/docs/Statistics.xlsx
+++ b/Lab1/docs/Statistics.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mike\workspace\CPAR\Lab1\docs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="2"/>
   </bookViews>
@@ -17,7 +12,7 @@
     <sheet name="Otimizado com Paralelismo" sheetId="3" r:id="rId3"/>
     <sheet name="Comparação Global" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="144525" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -27,7 +22,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="G14" authorId="0" shapeId="0">
+    <comment ref="G14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -422,15 +417,6 @@
   </cellStyleXfs>
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -495,6 +481,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -585,7 +580,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="1"/>
   <c:style val="2"/>
   <c:chart>
@@ -763,11 +758,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1552881968"/>
-        <c:axId val="-1552878704"/>
+        <c:axId val="81566464"/>
+        <c:axId val="81567040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1552881968"/>
+        <c:axId val="81566464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -777,12 +772,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1552878704"/>
+        <c:crossAx val="81567040"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1552878704"/>
+        <c:axId val="81567040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -792,7 +787,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1552881968"/>
+        <c:crossAx val="81566464"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -805,6 +800,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -833,7 +829,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="1"/>
   <c:style val="2"/>
   <c:chart>
@@ -847,7 +843,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1600" b="1">
+              <a:rPr lang="pt-PT" sz="1600" b="1">
                 <a:solidFill>
                   <a:srgbClr val="F2F2F2"/>
                 </a:solidFill>
@@ -858,6 +854,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1034,11 +1031,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1650281072"/>
-        <c:axId val="-1649933952"/>
+        <c:axId val="55903936"/>
+        <c:axId val="55904512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1650281072"/>
+        <c:axId val="55903936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1048,12 +1045,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1649933952"/>
+        <c:crossAx val="55904512"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1649933952"/>
+        <c:axId val="55904512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1063,7 +1060,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1650281072"/>
+        <c:crossAx val="55903936"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1076,6 +1073,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1104,7 +1102,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="1"/>
   <c:style val="2"/>
   <c:chart>
@@ -1118,7 +1116,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr b="1">
+              <a:rPr lang="pt-PT" b="1">
                 <a:solidFill>
                   <a:srgbClr val="F2F2F2"/>
                 </a:solidFill>
@@ -1129,6 +1127,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1269,11 +1268,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1507030496"/>
-        <c:axId val="-1507031040"/>
+        <c:axId val="55906240"/>
+        <c:axId val="55906816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1507030496"/>
+        <c:axId val="55906240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1283,12 +1282,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1507031040"/>
+        <c:crossAx val="55906816"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1507031040"/>
+        <c:axId val="55906816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1298,7 +1297,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1507030496"/>
+        <c:crossAx val="55906240"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1311,6 +1310,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1339,7 +1339,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1376,7 +1376,7 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="1"/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1384,25 +1384,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2336,11 +2317,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1507028864"/>
-        <c:axId val="-1507033216"/>
+        <c:axId val="55908544"/>
+        <c:axId val="55909120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1507028864"/>
+        <c:axId val="55908544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2396,12 +2377,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1507033216"/>
+        <c:crossAx val="55909120"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1507033216"/>
+        <c:axId val="55909120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2457,7 +2438,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1507028864"/>
+        <c:crossAx val="55908544"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2470,7 +2451,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="t"/>
+      <c:legendPos val="b"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -2543,9 +2524,16 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="1"/>
-  <c:style val="2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="144"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="44"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -2557,19 +2545,14 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="pt-PT" sz="1400" b="1">
-                <a:solidFill>
-                  <a:srgbClr val="D9D9D9"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:rPr>
+              <a:rPr lang="pt-PT"/>
               <a:t>C/C++ com Paralelismo - OpenMP</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="1"/>
+      <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2583,18 +2566,6 @@
           <c:tx>
             <c:v>1 Thread</c:v>
           </c:tx>
-          <c:spPr>
-            <a:ln w="22320">
-              <a:solidFill>
-                <a:srgbClr val="5B9BD5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="2"/>
-          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>'Otimizado com Paralelismo'!$B$2:$B$8;'Otimizado com Paralelismo'!$B$10:$B$13</c:f>
@@ -2687,18 +2658,6 @@
           <c:tx>
             <c:v>2 Threads</c:v>
           </c:tx>
-          <c:spPr>
-            <a:ln w="22320">
-              <a:solidFill>
-                <a:srgbClr val="A5A5A5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="2"/>
-          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>'Otimizado com Paralelismo'!$B$2:$B$8;'Otimizado com Paralelismo'!$B$10:$B$13</c:f>
@@ -2791,18 +2750,6 @@
           <c:tx>
             <c:v>3 Threads</c:v>
           </c:tx>
-          <c:spPr>
-            <a:ln w="22320">
-              <a:solidFill>
-                <a:srgbClr val="FFC000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="2"/>
-          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>'Otimizado com Paralelismo'!$B$2:$B$8;'Otimizado com Paralelismo'!$B$10:$B$13</c:f>
@@ -2895,18 +2842,6 @@
           <c:tx>
             <c:v>4 Threads</c:v>
           </c:tx>
-          <c:spPr>
-            <a:ln w="22320">
-              <a:solidFill>
-                <a:srgbClr val="92D050"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="x"/>
-            <c:size val="2"/>
-          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>'Otimizado com Paralelismo'!$B$2:$B$8;'Otimizado com Paralelismo'!$B$10:$B$13</c:f>
@@ -3001,72 +2936,51 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1507037024"/>
-        <c:axId val="-1507032672"/>
+        <c:axId val="56541760"/>
+        <c:axId val="56542336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1507037024"/>
+        <c:axId val="56541760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1507032672"/>
+        <c:crossAx val="56542336"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1507032672"/>
+        <c:axId val="56542336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1507037024"/>
+        <c:crossAx val="56541760"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:layout/>
       <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="1"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="404040"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:solidFill>
-        <a:srgbClr val="D9D9D9"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -3078,7 +2992,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="1"/>
   <c:style val="2"/>
   <c:chart>
@@ -3404,11 +3318,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1507032128"/>
-        <c:axId val="-1507035936"/>
+        <c:axId val="56544064"/>
+        <c:axId val="56544640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1507032128"/>
+        <c:axId val="56544064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3418,12 +3332,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1507035936"/>
+        <c:crossAx val="56544640"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1507035936"/>
+        <c:axId val="56544640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3433,7 +3347,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1507032128"/>
+        <c:crossAx val="56544064"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3476,584 +3390,6 @@
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="15000"/>
-        <a:lumOff val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:miter lim="800000"/>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="22225" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-      <a:effectLst>
-        <a:glow rad="139700">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="14000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:effectRef>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr">
-          <a:lumMod val="60000"/>
-          <a:lumOff val="40000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:effectLst>
-        <a:glow rad="63500">
-          <a:schemeClr val="phClr">
-            <a:satMod val="175000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:glow>
-      </a:effectLst>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="50000"/>
-          <a:lumOff val="50000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-            <a:alpha val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-            <a:alpha val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1">
-          <a:lumMod val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4695,7 +4031,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4730,7 +4066,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4907,7 +4243,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4917,7 +4253,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -4936,236 +4272,236 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="2">
         <v>600</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="2">
         <v>1.419</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="3">
         <f t="shared" ref="D2:D8" si="0">(2*(B2^3)/C2)/1000000</f>
         <v>304.43974630021143</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="7">
+      <c r="A3" s="23"/>
+      <c r="B3" s="4">
         <v>1000</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="4">
         <v>7.8129999999999997</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="5">
         <f t="shared" si="0"/>
         <v>255.9836170485089</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="7">
+      <c r="A4" s="23"/>
+      <c r="B4" s="4">
         <v>1400</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="4">
         <v>22.109000000000002</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="5">
         <f t="shared" si="0"/>
         <v>248.22470487131935</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="7">
+      <c r="A5" s="23"/>
+      <c r="B5" s="4">
         <v>1800</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="4">
         <v>49.411999999999999</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="5">
         <f t="shared" si="0"/>
         <v>236.05601878086296</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="7">
+      <c r="A6" s="23"/>
+      <c r="B6" s="4">
         <v>2200</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="4">
         <v>94.471999999999994</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="5">
         <f t="shared" si="0"/>
         <v>225.42128884748919</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="7">
+      <c r="A7" s="23"/>
+      <c r="B7" s="4">
         <v>2600</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="4">
         <v>189.19900000000001</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="5">
         <f t="shared" si="0"/>
         <v>185.79379383611962</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="9">
+      <c r="A8" s="23"/>
+      <c r="B8" s="6">
         <v>3000</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="6">
         <v>286.88600000000002</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="7">
         <f t="shared" si="0"/>
         <v>188.22807665762704</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="2">
         <v>600</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="2">
         <v>2.0609999999999999</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="3">
         <f t="shared" ref="D11:D17" si="1">(2*(B11^3)/C11)/1000000</f>
         <v>209.60698689956331</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="7">
+      <c r="A12" s="23"/>
+      <c r="B12" s="4">
         <v>1000</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="4">
         <v>12.817</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="5">
         <f t="shared" si="1"/>
         <v>156.04275571506594</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="7">
+      <c r="A13" s="23"/>
+      <c r="B13" s="4">
         <v>1400</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="4">
         <v>37.072000000000003</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="5">
         <f t="shared" si="1"/>
         <v>148.03625377643505</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="7">
+      <c r="A14" s="23"/>
+      <c r="B14" s="4">
         <v>1800</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="4">
         <v>86.454999999999998</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="5">
         <f t="shared" si="1"/>
         <v>134.91411717078248</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="7">
+      <c r="A15" s="23"/>
+      <c r="B15" s="4">
         <v>2200</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="4">
         <v>175.66900000000001</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="5">
         <f t="shared" si="1"/>
         <v>121.22799127905321</v>
       </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="7">
+      <c r="A16" s="23"/>
+      <c r="B16" s="4">
         <v>2600</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="4">
         <v>294.61099999999999</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="5">
         <f t="shared" si="1"/>
         <v>119.31665823747248</v>
       </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="9">
+      <c r="A17" s="23"/>
+      <c r="B17" s="6">
         <v>3000</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="6">
         <v>463.59899999999999</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="7">
         <f t="shared" si="1"/>
         <v>116.47997515093863</v>
       </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5182,7 +4518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
@@ -5200,353 +4536,353 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="2">
         <v>600</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="2">
         <v>0.313</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="3">
         <f t="shared" ref="D2:D8" si="0">(2*(B2^3)/C2)/1000000</f>
         <v>1380.1916932907347</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="2">
         <v>4000</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="2">
         <v>128.18</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="3">
         <f>(2*(G2^3)/H2)/1000000</f>
         <v>998.59572476205324</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="7">
+      <c r="A3" s="23"/>
+      <c r="B3" s="4">
         <v>1000</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="4">
         <v>1.921</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="5">
         <f t="shared" si="0"/>
         <v>1041.1244143675169</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="7">
+      <c r="F3" s="23"/>
+      <c r="G3" s="4">
         <v>6000</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="4">
         <v>377.39</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="5">
         <f>(2*(G3^3)/H3)/1000000</f>
         <v>1144.7044171811654</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="7">
+      <c r="A4" s="23"/>
+      <c r="B4" s="4">
         <v>1400</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="4">
         <v>5.391</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="5">
         <f t="shared" si="0"/>
         <v>1017.992951214988</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="7">
+      <c r="F4" s="23"/>
+      <c r="G4" s="4">
         <v>8000</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="4">
         <v>904.18200000000002</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="5">
         <f>(2*(G4^3)/H4)/1000000</f>
         <v>1132.5153564216052</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="7">
+      <c r="A5" s="23"/>
+      <c r="B5" s="4">
         <v>1800</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="4">
         <v>11.936999999999999</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="5">
         <f t="shared" si="0"/>
         <v>977.12993214375467</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="9">
+      <c r="F5" s="23"/>
+      <c r="G5" s="6">
         <v>10000</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="6">
         <v>1586.9860000000001</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="7">
         <f>(2*(G5^3)/H5)/1000000</f>
         <v>1260.2505630169389</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="7">
+      <c r="A6" s="23"/>
+      <c r="B6" s="4">
         <v>2200</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="4">
         <v>21.004000000000001</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="5">
         <f t="shared" si="0"/>
         <v>1013.9021138830699</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="7">
+      <c r="A7" s="23"/>
+      <c r="B7" s="4">
         <v>2600</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="4">
         <v>35.204000000000001</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="5">
         <f t="shared" si="0"/>
         <v>998.52289512555387</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="9">
+      <c r="A8" s="23"/>
+      <c r="B8" s="6">
         <v>3000</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="6">
         <v>54.113999999999997</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="7">
         <f t="shared" si="0"/>
         <v>997.89333629005444</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="2">
         <v>600</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="2">
         <v>0.39300000000000002</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="3">
         <f t="shared" ref="D11:D17" si="1">(2*(B11^3)/C11)/1000000</f>
         <v>1099.2366412213739</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="2">
         <v>4000</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="2">
         <v>164.512</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="3">
         <f>(2*(G11^3)/H11)/1000000</f>
         <v>778.05874343512937</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="7">
+      <c r="A12" s="23"/>
+      <c r="B12" s="4">
         <v>1000</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="4">
         <v>2.83</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="5">
         <f t="shared" si="1"/>
         <v>706.71378091872782</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="7">
+      <c r="F12" s="23"/>
+      <c r="G12" s="4">
         <v>6000</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="4">
         <v>531.27300000000002</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="5">
         <f>(2*(G12^3)/H12)/1000000</f>
         <v>813.14126635458604</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="7">
+      <c r="A13" s="23"/>
+      <c r="B13" s="4">
         <v>1400</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="4">
         <v>7.4729999999999999</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="5">
         <f t="shared" si="1"/>
         <v>734.37709086043094</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="7">
+      <c r="F13" s="23"/>
+      <c r="G13" s="4">
         <v>8000</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="4">
         <v>1024.972</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="5">
         <f>(2*(G13^3)/H13)/1000000</f>
         <v>999.0516814117849</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="7">
+      <c r="A14" s="23"/>
+      <c r="B14" s="4">
         <v>1800</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="4">
         <v>19.247</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="5">
         <f t="shared" si="1"/>
         <v>606.01652205538528</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="9">
+      <c r="F14" s="23"/>
+      <c r="G14" s="6">
         <v>10000</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="6">
         <v>1762.0840000000001</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="7">
         <f>(2*(G14^3)/H14)/1000000</f>
         <v>1135.0196698908792</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="7">
+      <c r="A15" s="23"/>
+      <c r="B15" s="4">
         <v>2200</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="4">
         <v>27.372</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="5">
         <f t="shared" si="1"/>
         <v>778.02133567148917</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="7">
+      <c r="A16" s="23"/>
+      <c r="B16" s="4">
         <v>2600</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="4">
         <v>45.738999999999997</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="5">
         <f t="shared" si="1"/>
         <v>768.53451102997451</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="9">
+      <c r="A17" s="23"/>
+      <c r="B17" s="6">
         <v>3000</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="6">
         <v>69.876000000000005</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="7">
         <f t="shared" si="1"/>
         <v>772.79752704791338</v>
       </c>
@@ -5570,7 +4906,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5589,789 +4925,811 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="14">
         <v>600</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="2">
         <v>1.006</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="2">
         <f t="shared" ref="D2:D8" si="0">(2*(B2^3)/C2)/1000000</f>
         <v>429.42345924453281</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="2">
         <v>0.5</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="2">
         <f t="shared" ref="F2:F8" si="1">(2*(B2^3)/E2)/1000000</f>
         <v>864</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="2">
         <v>0.33500000000000002</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="2">
         <f t="shared" ref="H2:H8" si="2">(2*(B2^3)/G2)/1000000</f>
         <v>1289.5522388059699</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="2">
         <v>0.25600000000000001</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="3">
         <f t="shared" ref="J2:J8" si="3">(2*(B2^3)/I2)/1000000</f>
         <v>1687.5</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="18">
+      <c r="A3" s="24"/>
+      <c r="B3" s="15">
         <v>1000</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="4">
         <v>4.8360000000000003</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="4">
         <f t="shared" si="0"/>
         <v>413.56492969396191</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="4">
         <v>2.41</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="4">
         <f t="shared" si="1"/>
         <v>829.87551867219918</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="4">
         <v>1.631</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="4">
         <f t="shared" si="2"/>
         <v>1226.2415695892091</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="4">
         <v>1.27</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="5">
         <f t="shared" si="3"/>
         <v>1574.8031496062993</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="18">
+      <c r="A4" s="24"/>
+      <c r="B4" s="15">
         <v>1400</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="4">
         <v>13.317</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="4">
         <f t="shared" si="0"/>
         <v>412.10482841480814</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="4">
         <v>6.6840000000000002</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="4">
         <f t="shared" si="1"/>
         <v>821.06523040095749</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="4">
         <v>4.5460000000000003</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="4">
         <f t="shared" si="2"/>
         <v>1207.215134183898</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="4">
         <v>3.758</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="5">
         <f t="shared" si="3"/>
         <v>1460.3512506652473</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="18">
+      <c r="A5" s="24"/>
+      <c r="B5" s="15">
         <v>1800</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="4">
         <v>28.283999999999999</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="4">
         <f t="shared" si="0"/>
         <v>412.38862961391607</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="4">
         <v>14.225</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="4">
         <f t="shared" si="1"/>
         <v>819.96485061511419</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="4">
         <v>9.8230000000000004</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="4">
         <f t="shared" si="2"/>
         <v>1187.4172859615187</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="4">
         <v>8.1280000000000001</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="5">
         <f t="shared" si="3"/>
         <v>1435.0393700787401</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="18">
+      <c r="A6" s="24"/>
+      <c r="B6" s="15">
         <v>2200</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="4">
         <v>52.398000000000003</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="4">
         <f t="shared" si="0"/>
         <v>406.4277262490935</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="4">
         <v>26.359000000000002</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="4">
         <f t="shared" si="1"/>
         <v>807.92139307257469</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="4">
         <v>18.303000000000001</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="4">
         <f t="shared" si="2"/>
         <v>1163.5251051740152</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="4">
         <v>15.33</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="5">
         <f t="shared" si="3"/>
         <v>1389.1715590345727</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="18">
+      <c r="A7" s="24"/>
+      <c r="B7" s="15">
         <v>2600</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="4">
         <v>86.825999999999993</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="4">
         <f t="shared" si="0"/>
         <v>404.85568838827083</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="4">
         <v>44.122</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="4">
         <f t="shared" si="1"/>
         <v>796.70005892751919</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="4">
         <v>30.507999999999999</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="4">
         <f t="shared" si="2"/>
         <v>1152.2223679035008</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="4">
         <v>25.61</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="5">
         <f t="shared" si="3"/>
         <v>1372.5888324873097</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="18">
+      <c r="A8" s="24"/>
+      <c r="B8" s="15">
         <v>3000</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="4">
         <v>133.274</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="4">
         <f t="shared" si="0"/>
         <v>405.18030523582996</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="4">
         <v>67.385999999999996</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="4">
         <f t="shared" si="1"/>
         <v>801.35339684801011</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="4">
         <v>47.661000000000001</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="4">
         <f t="shared" si="2"/>
         <v>1133.0018253918297</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="4">
         <v>39.758000000000003</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="5">
         <f t="shared" si="3"/>
         <v>1358.2172141455808</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="19" t="s">
+      <c r="A9" s="24"/>
+      <c r="B9" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="H9" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="I9" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="21" t="s">
+      <c r="J9" s="18" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="18">
+      <c r="A10" s="24"/>
+      <c r="B10" s="15">
         <v>4000</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="4">
         <v>315.86399999999998</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="4">
         <f>(2*(B10^3)/C10)/1000000</f>
         <v>405.23769723678549</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="4">
         <v>159.274</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="4">
         <f>(2*(B10^3)/E10)/1000000</f>
         <v>803.64654620339786</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="4">
         <v>111.40900000000001</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="4">
         <f>(2*(B10^3)/G10)/1000000</f>
         <v>1148.9197461605434</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="4">
         <v>95.510999999999996</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="5">
         <f>(2*(B10^3)/I10)/1000000</f>
         <v>1340.1597721728388</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="18">
+      <c r="A11" s="24"/>
+      <c r="B11" s="15">
         <v>6000</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="4">
         <v>1066.1780000000001</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="4">
         <f>(2*(B11^3)/C11)/1000000</f>
         <v>405.18562566475759</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="4">
         <v>511.11099999999999</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="4">
         <f>(2*(B11^3)/E11)/1000000</f>
         <v>845.21757504729896</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="4">
         <v>357.75</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="4">
         <f>(2*(B11^3)/G11)/1000000</f>
         <v>1207.5471698113208</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="4">
         <v>327.27600000000001</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="5">
         <f>(2*(B11^3)/I11)/1000000</f>
         <v>1319.9868001319985</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="18">
+      <c r="A12" s="24"/>
+      <c r="B12" s="15">
         <v>8000</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="4">
         <v>2335.3310000000001</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="4">
         <f>(2*(B12^3)/C12)/1000000</f>
         <v>438.48173984758472</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="4">
         <v>1240.3620000000001</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="4">
         <f>(2*(B12^3)/E12)/1000000</f>
         <v>825.56543976677779</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="4">
         <v>872.17</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="4">
         <f>(2*(B12^3)/G12)/1000000</f>
         <v>1174.0830342708418</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="4">
         <v>781.46500000000003</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="5">
         <f>(2*(B12^3)/I12)/1000000</f>
         <v>1310.3593890961206</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="22">
+      <c r="A13" s="24"/>
+      <c r="B13" s="19">
         <v>10000</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="6">
         <v>4558.0510000000004</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="6">
         <f>(2*(B13^3)/C13)/1000000</f>
         <v>438.78403291231268</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="6">
         <v>2269.64</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="6">
         <f>(2*(B13^3)/E13)/1000000</f>
         <v>881.19701802929103</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="6">
         <v>1667.2370000000001</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="6">
         <f>(2*(B13^3)/G13)/1000000</f>
         <v>1199.589500472938</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="6">
         <v>1325.8119999999999</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J13" s="7">
         <f>(2*(B13^3)/I13)/1000000</f>
         <v>1508.509502101354</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="F15" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="24" t="s">
+      <c r="G15" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="24" t="s">
+      <c r="H15" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="24" t="s">
+      <c r="I15" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="25" t="s">
+      <c r="J15" s="22" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="18">
+      <c r="B16" s="15">
         <v>600</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7" t="e">
+      <c r="C16" s="4">
+        <v>1.7629999999999999</v>
+      </c>
+      <c r="D16" s="4">
         <f t="shared" ref="D16:D22" si="4">(2*(B16^3)/C16)/1000000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7" t="e">
+        <v>245.03686897334089</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4" t="e">
         <f>(2*(B16^3)/E16)/1000000</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7" t="e">
+      <c r="G16" s="4"/>
+      <c r="H16" s="4" t="e">
         <f t="shared" ref="H16:H22" si="5">(2*(B16^3)/G16)/1000000</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I16" s="7"/>
-      <c r="J16" s="8" t="e">
+      <c r="I16" s="4"/>
+      <c r="J16" s="5" t="e">
         <f t="shared" ref="J16:J22" si="6">(2*(B16^3)/I16)/1000000</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="18">
+      <c r="A17" s="25"/>
+      <c r="B17" s="15">
         <v>1000</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7" t="e">
+      <c r="C17" s="4">
+        <v>8.0510000000000002</v>
+      </c>
+      <c r="D17" s="4">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7" t="e">
+        <v>248.41634579555335</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4" t="e">
         <f>(2*(B17^3)/E17)/1000000</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7" t="e">
+      <c r="G17" s="4"/>
+      <c r="H17" s="4" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I17" s="7"/>
-      <c r="J17" s="8" t="e">
+      <c r="I17" s="4"/>
+      <c r="J17" s="5" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="18">
+      <c r="A18" s="25"/>
+      <c r="B18" s="15">
         <v>1400</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7" t="e">
+      <c r="C18" s="4">
+        <v>22.073</v>
+      </c>
+      <c r="D18" s="4">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7" t="e">
+        <v>248.62954741086395</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4" t="e">
         <f>(2*(B18^3)/E18)/1000000</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7" t="e">
+      <c r="G18" s="4"/>
+      <c r="H18" s="4" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I18" s="7"/>
-      <c r="J18" s="8" t="e">
+      <c r="I18" s="4"/>
+      <c r="J18" s="5" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="18">
+      <c r="A19" s="25"/>
+      <c r="B19" s="15">
         <v>1800</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7" t="e">
+      <c r="C19" s="4">
+        <v>46.92</v>
+      </c>
+      <c r="D19" s="4">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7" t="e">
+        <v>248.5933503836317</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4" t="e">
         <f>(2*(D19^3)/E19)/1000000</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7" t="e">
+      <c r="G19" s="4"/>
+      <c r="H19" s="4" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I19" s="7"/>
-      <c r="J19" s="8" t="e">
+      <c r="I19" s="4"/>
+      <c r="J19" s="5" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="18">
+      <c r="A20" s="25"/>
+      <c r="B20" s="15">
         <v>2200</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7" t="e">
+      <c r="C20" s="4">
+        <v>86.188999999999993</v>
+      </c>
+      <c r="D20" s="4">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7" t="e">
+        <v>247.08489482416553</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4" t="e">
         <f>(2*(B20^3)/E20)/1000000</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7" t="e">
+      <c r="G20" s="4"/>
+      <c r="H20" s="4" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I20" s="7"/>
-      <c r="J20" s="8" t="e">
+      <c r="I20" s="4"/>
+      <c r="J20" s="5" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="18">
+      <c r="A21" s="25"/>
+      <c r="B21" s="15">
         <v>2600</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7" t="e">
+      <c r="C21" s="4">
+        <v>137.828</v>
+      </c>
+      <c r="D21" s="4">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7" t="e">
+        <v>255.04251676001971</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4" t="e">
         <f>(2*(B21^3)/E21)/1000000</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7" t="e">
+      <c r="G21" s="4"/>
+      <c r="H21" s="4" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I21" s="7"/>
-      <c r="J21" s="8" t="e">
+      <c r="I21" s="4"/>
+      <c r="J21" s="5" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="18">
+      <c r="A22" s="25"/>
+      <c r="B22" s="15">
         <v>3000</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7" t="e">
+      <c r="C22" s="4">
+        <v>219.339</v>
+      </c>
+      <c r="D22" s="4">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7" t="e">
+        <v>246.194247261089</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4" t="e">
         <f>(2*(B22^3)/E22)/1000000</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7" t="e">
+      <c r="G22" s="4"/>
+      <c r="H22" s="4" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I22" s="7"/>
-      <c r="J22" s="8" t="e">
+      <c r="I22" s="4"/>
+      <c r="J22" s="5" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="19" t="s">
+      <c r="A23" s="25"/>
+      <c r="B23" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="20" t="s">
+      <c r="E23" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="F23" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="20" t="s">
+      <c r="G23" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H23" s="20" t="s">
+      <c r="H23" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="I23" s="20" t="s">
+      <c r="I23" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="J23" s="21" t="s">
+      <c r="J23" s="18" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="18">
+      <c r="A24" s="25"/>
+      <c r="B24" s="15">
         <v>4000</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7" t="e">
+      <c r="C24" s="4">
+        <v>519.85599999999999</v>
+      </c>
+      <c r="D24" s="4">
         <f>(2*(B24^3)/C24)/1000000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7" t="e">
+        <v>246.22203071619833</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4" t="e">
         <f>(2*(B24^3)/E24)/1000000</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7" t="e">
+      <c r="G24" s="4"/>
+      <c r="H24" s="4" t="e">
         <f>(2*(B24^3)/G24)/1000000</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I24" s="7"/>
-      <c r="J24" s="8" t="e">
+      <c r="I24" s="4"/>
+      <c r="J24" s="5" t="e">
         <f>(2*(B24^3)/I24)/1000000</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="18">
+      <c r="A25" s="25"/>
+      <c r="B25" s="15">
         <v>6000</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7" t="e">
+      <c r="C25" s="4">
+        <v>1751.4860000000001</v>
+      </c>
+      <c r="D25" s="4">
         <f>(2*(B25^3)/C25)/1000000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7" t="e">
+        <v>246.6477037212972</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4" t="e">
         <f>(2*(B25^3)/E25)/1000000</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7" t="e">
+      <c r="G25" s="4"/>
+      <c r="H25" s="4" t="e">
         <f>(2*(B25^3)/G25)/1000000</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I25" s="7"/>
-      <c r="J25" s="8" t="e">
+      <c r="I25" s="4"/>
+      <c r="J25" s="5" t="e">
         <f>(2*(B25^3)/I25)/1000000</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="18">
+      <c r="A26" s="25"/>
+      <c r="B26" s="15">
         <v>8000</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7" t="e">
+      <c r="C26" s="4">
+        <v>3953.1759999999999</v>
+      </c>
+      <c r="D26" s="4">
         <f>(2*(B26^3)/C26)/1000000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7" t="e">
+        <v>259.03223129959304</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4" t="e">
         <f>(2*(B26^3)/E26)/1000000</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7" t="e">
+      <c r="G26" s="4"/>
+      <c r="H26" s="4" t="e">
         <f>(2*(B26^3)/G26)/1000000</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I26" s="7"/>
-      <c r="J26" s="8" t="e">
+      <c r="I26" s="4"/>
+      <c r="J26" s="5" t="e">
         <f>(2*(B26^3)/I26)/1000000</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="22">
+      <c r="A27" s="25"/>
+      <c r="B27" s="19">
         <v>10000</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9" t="e">
+      <c r="C27" s="6">
+        <v>7684.5479999999998</v>
+      </c>
+      <c r="D27" s="6">
         <f>(2*(B27^3)/C27)/1000000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9" t="e">
+        <v>260.2625424423141</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6" t="e">
         <f>(2*(B27^3)/E27)/1000000</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9" t="e">
+      <c r="G27" s="6"/>
+      <c r="H27" s="6" t="e">
         <f>(2*(B27^3)/G27)/1000000</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I27" s="9"/>
-      <c r="J27" s="10" t="e">
+      <c r="I27" s="6"/>
+      <c r="J27" s="7" t="e">
         <f>(2*(B27^3)/I27)/1000000</f>
         <v>#DIV/0!</v>
       </c>
@@ -6391,7 +5749,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38:E39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Lab1/docs/Statistics.xlsx
+++ b/Lab1/docs/Statistics.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mike\workspace\CPAR\Lab1\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="2"/>
   </bookViews>
@@ -12,7 +17,7 @@
     <sheet name="Otimizado com Paralelismo" sheetId="3" r:id="rId3"/>
     <sheet name="Comparação Global" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525" iterateDelta="1E-4"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -22,7 +27,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="G14" authorId="0">
+    <comment ref="G14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -580,7 +585,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
   <c:style val="2"/>
   <c:chart>
@@ -758,11 +763,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="81566464"/>
-        <c:axId val="81567040"/>
+        <c:axId val="-1729220304"/>
+        <c:axId val="-1859810480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="81566464"/>
+        <c:axId val="-1729220304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -772,12 +777,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81567040"/>
+        <c:crossAx val="-1859810480"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="81567040"/>
+        <c:axId val="-1859810480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -787,7 +792,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81566464"/>
+        <c:crossAx val="-1729220304"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -800,7 +805,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -829,7 +833,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
   <c:style val="2"/>
   <c:chart>
@@ -854,7 +858,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1031,11 +1034,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="55903936"/>
-        <c:axId val="55904512"/>
+        <c:axId val="-1676536240"/>
+        <c:axId val="-1676547120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="55903936"/>
+        <c:axId val="-1676536240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1045,12 +1048,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55904512"/>
+        <c:crossAx val="-1676547120"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="55904512"/>
+        <c:axId val="-1676547120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1060,7 +1063,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55903936"/>
+        <c:crossAx val="-1676536240"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1073,7 +1076,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1102,7 +1104,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
   <c:style val="2"/>
   <c:chart>
@@ -1127,7 +1129,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1268,11 +1269,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="55906240"/>
-        <c:axId val="55906816"/>
+        <c:axId val="-1676544944"/>
+        <c:axId val="-1676542224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="55906240"/>
+        <c:axId val="-1676544944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1282,12 +1283,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55906816"/>
+        <c:crossAx val="-1676542224"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="55906816"/>
+        <c:axId val="-1676542224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1297,7 +1298,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55906240"/>
+        <c:crossAx val="-1676544944"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1310,7 +1311,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1339,7 +1339,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1357,12 +1357,19 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                    <a:lumMod val="95000"/>
                   </a:schemeClr>
                 </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -1370,8 +1377,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pt-PT"/>
-              <a:t>C/C++ com Paralelismo</a:t>
+              <a:t>C/C++</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="pt-PT" baseline="0"/>
+              <a:t> Paralelismo</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1384,6 +1396,32 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1398,40 +1436,62 @@
             <c:v>OpenMP - 1 Thread</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="9525" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent1">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
             </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="3"/>
+            <c:size val="6"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst>
-                <a:glow rad="63500">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="175000"/>
-                    <a:alpha val="25000"/>
-                  </a:schemeClr>
-                </a:glow>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
               </a:effectLst>
             </c:spPr>
           </c:marker>
@@ -1528,40 +1588,62 @@
             <c:v>OpenMP - 2 Threads</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="9525" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent2">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
             </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="3"/>
+            <c:size val="6"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst>
-                <a:glow rad="63500">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="175000"/>
-                    <a:alpha val="25000"/>
-                  </a:schemeClr>
-                </a:glow>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
               </a:effectLst>
             </c:spPr>
           </c:marker>
@@ -1658,40 +1740,62 @@
             <c:v>OpenMP - 3 Threads</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="9525" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent3">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
             </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="3"/>
+            <c:size val="6"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst>
-                <a:glow rad="63500">
-                  <a:schemeClr val="accent3">
-                    <a:satMod val="175000"/>
-                    <a:alpha val="25000"/>
-                  </a:schemeClr>
-                </a:glow>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
               </a:effectLst>
             </c:spPr>
           </c:marker>
@@ -1788,40 +1892,62 @@
             <c:v>OpenMP - 4 Threads</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="9525" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent4">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
             </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="3"/>
+            <c:size val="6"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst>
-                <a:glow rad="63500">
-                  <a:schemeClr val="accent4">
-                    <a:satMod val="175000"/>
-                    <a:alpha val="25000"/>
-                  </a:schemeClr>
-                </a:glow>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
               </a:effectLst>
             </c:spPr>
           </c:marker>
@@ -1918,40 +2044,62 @@
             <c:v>std::thread - 1 Thread</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="9525" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent5"/>
               </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent5">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
             </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="3"/>
+            <c:size val="6"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst>
-                <a:glow rad="63500">
-                  <a:schemeClr val="accent5">
-                    <a:satMod val="175000"/>
-                    <a:alpha val="25000"/>
-                  </a:schemeClr>
-                </a:glow>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
               </a:effectLst>
             </c:spPr>
           </c:marker>
@@ -1999,10 +2147,31 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Otimizado com Paralelismo'!$D$16:$D$22;'Otimizado com Paralelismo'!$D$24:$D$27</c:f>
+              <c:f>'Otimizado com Paralelismo'!$D$16:$D$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>245.03686897334089</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>248.41634579555335</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>248.62954741086395</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>248.5933503836317</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>247.08489482416553</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>255.04251676001971</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>246.194247261089</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2015,40 +2184,62 @@
             <c:v>std::thread - 2 Threads</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="9525" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
             </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="3"/>
+            <c:size val="6"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst>
-                <a:glow rad="63500">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="175000"/>
-                    <a:alpha val="25000"/>
-                  </a:schemeClr>
-                </a:glow>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
               </a:effectLst>
             </c:spPr>
           </c:marker>
@@ -2096,10 +2287,31 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Otimizado com Paralelismo'!$F$16:$F$22;'Otimizado com Paralelismo'!$F$24:$F$27</c:f>
+              <c:f>'Otimizado com Paralelismo'!$F$16:$F$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>507.63807285546415</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>495.17207229512258</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>493.0817610062893</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2863379729550879</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>471.34857572873557</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>483.74090027109969</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>493.42105263157896</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2112,45 +2324,69 @@
             <c:v>std::thread - 3 Threads</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="9525" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1">
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
             </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="3"/>
+            <c:size val="6"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst>
-                <a:glow rad="63500">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                    <a:satMod val="175000"/>
-                    <a:alpha val="25000"/>
-                  </a:schemeClr>
-                </a:glow>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
               </a:effectLst>
             </c:spPr>
           </c:marker>
@@ -2214,45 +2450,69 @@
             <c:v>std::thread - 4 Threads</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="9525" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2">
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst>
-              <a:glow rad="139700">
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
-                </a:schemeClr>
-              </a:glow>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
             </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="3"/>
+            <c:size val="6"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
               </a:ln>
               <a:effectLst>
-                <a:glow rad="63500">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                    <a:satMod val="175000"/>
-                    <a:alpha val="25000"/>
-                  </a:schemeClr>
-                </a:glow>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
               </a:effectLst>
             </c:spPr>
           </c:marker>
@@ -2317,11 +2577,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="55908544"/>
-        <c:axId val="55909120"/>
+        <c:axId val="-1676537872"/>
+        <c:axId val="-1676544400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="55908544"/>
+        <c:axId val="-1676537872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2331,10 +2591,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                  <a:alpha val="75000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -2342,8 +2601,75 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Tamanho</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -2354,7 +2680,6 @@
                 <a:lumMod val="50000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2377,12 +2702,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55909120"/>
+        <c:crossAx val="-1676544400"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="55909120"/>
+        <c:axId val="-1676544400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2392,10 +2717,9 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                  <a:alpha val="75000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -2403,8 +2727,79 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT" b="1"/>
+                  <a:t>Capacidade</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t> [MFLOPS/s]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -2415,7 +2810,6 @@
                 <a:lumMod val="50000"/>
               </a:schemeClr>
             </a:solidFill>
-            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2438,7 +2832,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55908544"/>
+        <c:crossAx val="-1676537872"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2451,7 +2845,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -2486,20 +2880,28 @@
     <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -2524,501 +2926,123 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="144"/>
+      <c14:style val="104"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="44"/>
+      <c:style val="4"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
-              <a:defRPr/>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="window" lastClr="FFFFFF">
+                    <a:lumMod val="95000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="pt-PT"/>
+              <a:rPr lang="pt-PT" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:srgbClr val="000000">
+                      <a:alpha val="40000"/>
+                    </a:srgbClr>
+                  </a:outerShdw>
+                </a:effectLst>
+              </a:rPr>
               <a:t>C/C++ com Paralelismo - OpenMP</a:t>
             </a:r>
+            <a:endParaRPr lang="pt-PT">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>1 Thread</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Otimizado com Paralelismo'!$B$2:$B$8;'Otimizado com Paralelismo'!$B$10:$B$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1400</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1800</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2200</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2600</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Otimizado com Paralelismo'!$D$2:$D$8;'Otimizado com Paralelismo'!$D$10:$D$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>429.42345924453298</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>413.56492969396197</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>412.10482841480803</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>412.38862961391601</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>406.42772624909401</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>404.85568838827101</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>405.18030523583002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>405.237697236786</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>405.18562566475799</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>438.481739847585</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>438.78403291231302</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>2 Threads</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Otimizado com Paralelismo'!$B$2:$B$8;'Otimizado com Paralelismo'!$B$10:$B$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1400</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1800</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2200</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2600</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Otimizado com Paralelismo'!$F$2:$F$8;'Otimizado com Paralelismo'!$F$10:$F$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>864</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>829.87551867219895</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>821.06523040095703</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>819.96485061511396</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>807.92139307257503</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>796.70005892751897</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>801.35339684800999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>803.64654620339797</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>845.21757504729896</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>825.56543976677801</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>881.19701802929103</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>3 Threads</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Otimizado com Paralelismo'!$B$2:$B$8;'Otimizado com Paralelismo'!$B$10:$B$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1400</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1800</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2200</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2600</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Otimizado com Paralelismo'!$H$2:$H$8;'Otimizado com Paralelismo'!$H$10:$H$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1289.5522388059701</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1226.24156958921</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1207.2151341839001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1187.4172859615201</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1163.5251051740199</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1152.2223679035001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1133.0018253918299</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1148.9197461605399</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1207.5471698113199</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1174.08303427084</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1199.58950047294</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>4 Threads</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Otimizado com Paralelismo'!$B$2:$B$8;'Otimizado com Paralelismo'!$B$10:$B$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1400</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1800</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2200</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2600</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Otimizado com Paralelismo'!$J$2:$J$8;'Otimizado com Paralelismo'!$J$10:$J$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1687.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1574.8031496062999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1460.3512506652501</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1435.0393700787399</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1389.17155903457</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1372.5888324873099</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1358.2172141455801</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1340.1597721728399</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1319.9868001320001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1310.3593890961199</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1508.5095021013501</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="56541760"/>
-        <c:axId val="56542336"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="56541760"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56542336"/>
-        <c:crossesAt val="0"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="56542336"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56541760"/>
-        <c:crossesAt val="0"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:showDLblsOverMax val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
-  <c:roundedCorners val="1"/>
-  <c:style val="2"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="pt-PT" sz="1400" b="1">
-                <a:solidFill>
-                  <a:srgbClr val="D9D9D9"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:rPr>
-              <a:t>C/C++ com Paralelismo - std::thread</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="window" lastClr="FFFFFF">
+                  <a:lumMod val="95000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -3033,20 +3057,75 @@
             <c:v>1 Thread</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="22320">
+            <a:ln w="9525" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="ED7D31"/>
+                <a:schemeClr val="accent2">
+                  <a:shade val="58000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="2"/>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:shade val="58000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:shade val="58000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:shade val="58000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:shade val="58000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Otimizado com Paralelismo'!$B$16:$B$22;'Otimizado com Paralelismo'!$B$24:$B$27</c:f>
+              <c:f>'Otimizado com Paralelismo'!$B$2:$B$8;'Otimizado com Paralelismo'!$B$10:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3088,10 +3167,43 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Otimizado com Paralelismo'!$D$16:$D$22;'Otimizado com Paralelismo'!$D$24:$D$27</c:f>
+              <c:f>'Otimizado com Paralelismo'!$D$2:$D$8;'Otimizado com Paralelismo'!$D$10:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>429.42345924453298</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>413.56492969396197</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>412.10482841480803</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>412.38862961391601</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>406.42772624909401</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>404.85568838827101</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>405.18030523583002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>405.237697236786</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>405.18562566475799</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>438.481739847585</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>438.78403291231302</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -3104,20 +3216,75 @@
             <c:v>2 Threads</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="22320">
+            <a:ln w="9525" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="70AD47"/>
+                <a:schemeClr val="accent2">
+                  <a:shade val="86000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="2"/>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:shade val="86000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:shade val="86000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:shade val="86000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:shade val="86000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Otimizado com Paralelismo'!$B$16:$B$22;'Otimizado com Paralelismo'!$B$24:$B$27</c:f>
+              <c:f>'Otimizado com Paralelismo'!$B$2:$B$8;'Otimizado com Paralelismo'!$B$10:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3159,10 +3326,43 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Otimizado com Paralelismo'!$F$16:$F$22;'Otimizado com Paralelismo'!$F$24:$F$27</c:f>
+              <c:f>'Otimizado com Paralelismo'!$F$2:$F$8;'Otimizado com Paralelismo'!$F$10:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>864</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>829.87551867219895</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>821.06523040095703</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>819.96485061511396</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>807.92139307257503</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>796.70005892751897</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>801.35339684800999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>803.64654620339797</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>845.21757504729896</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>825.56543976677801</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>881.19701802929103</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -3175,20 +3375,75 @@
             <c:v>3 Threads</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="22320">
+            <a:ln w="9525" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="255E91"/>
+                <a:schemeClr val="accent2">
+                  <a:tint val="86000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
-            <c:symbol val="triangle"/>
-            <c:size val="2"/>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:tint val="86000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:tint val="86000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:tint val="86000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:tint val="86000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Otimizado com Paralelismo'!$B$16:$B$22;'Otimizado com Paralelismo'!$B$24:$B$27</c:f>
+              <c:f>'Otimizado com Paralelismo'!$B$2:$B$8;'Otimizado com Paralelismo'!$B$10:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3230,10 +3485,43 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Otimizado com Paralelismo'!$H$16:$H$22;'Otimizado com Paralelismo'!$H$24:$H$27</c:f>
+              <c:f>'Otimizado com Paralelismo'!$H$2:$H$8;'Otimizado com Paralelismo'!$H$10:$H$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1289.5522388059701</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1226.24156958921</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1207.2151341839001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1187.4172859615201</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1163.5251051740199</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1152.2223679035001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1133.0018253918299</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1148.9197461605399</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1207.5471698113199</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1174.08303427084</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1199.58950047294</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -3246,20 +3534,75 @@
             <c:v>4 Threads</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="22320">
+            <a:ln w="9525" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="9E480E"/>
+                <a:schemeClr val="accent2">
+                  <a:tint val="58000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
-            <c:symbol val="x"/>
-            <c:size val="2"/>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:tint val="58000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:tint val="58000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:tint val="58000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:tint val="58000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Otimizado com Paralelismo'!$B$16:$B$22;'Otimizado com Paralelismo'!$B$24:$B$27</c:f>
+              <c:f>'Otimizado com Paralelismo'!$B$2:$B$8;'Otimizado com Paralelismo'!$B$10:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3301,10 +3644,43 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Otimizado com Paralelismo'!$J$16:$J$22;'Otimizado com Paralelismo'!$J$24:$J$27</c:f>
+              <c:f>'Otimizado com Paralelismo'!$J$2:$J$8;'Otimizado com Paralelismo'!$J$10:$J$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1687.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1574.8031496062999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1460.3512506652501</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1435.0393700787399</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1389.17155903457</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1372.5888324873099</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1358.2172141455801</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1340.1597721728399</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1319.9868001320001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1310.3593890961199</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1508.5095021013501</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -3318,36 +3694,263 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="56544064"/>
-        <c:axId val="56544640"/>
+        <c:axId val="-1676543856"/>
+        <c:axId val="-1676541136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="56544064"/>
+        <c:axId val="-1676543856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Tamanho</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56544640"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1676541136"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="56544640"/>
+        <c:axId val="-1676541136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Capacidade</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pt-PT" baseline="0"/>
+                  <a:t> [MFLOPS/S]</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56544064"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1676543856"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3356,6 +3959,7 @@
         <a:ln>
           <a:noFill/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
     </c:plotArea>
     <c:legend>
@@ -3367,29 +3971,1124 @@
         <a:ln>
           <a:noFill/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="404040"/>
-    </a:solidFill>
-    <a:ln w="9360">
-      <a:solidFill>
-        <a:srgbClr val="D9D9D9"/>
-      </a:solidFill>
-      <a:round/>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
     </a:ln>
+    <a:effectLst/>
   </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="15">
+  <a:schemeClr val="accent2"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3955,36 +5654,6 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>236520</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>133920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>102960</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>47880</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 4"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4243,7 +5912,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4905,8 +6574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5408,20 +7077,26 @@
         <f t="shared" ref="D16:D22" si="4">(2*(B16^3)/C16)/1000000</f>
         <v>245.03686897334089</v>
       </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4" t="e">
+      <c r="E16" s="4">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="F16" s="4">
         <f>(2*(B16^3)/E16)/1000000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4" t="e">
+        <v>507.63807285546415</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="H16" s="4">
         <f t="shared" ref="H16:H22" si="5">(2*(B16^3)/G16)/1000000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="5" t="e">
+        <v>614.50924608819355</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="J16" s="5">
         <f t="shared" ref="J16:J22" si="6">(2*(B16^3)/I16)/1000000</f>
-        <v>#DIV/0!</v>
+        <v>757.89473684210532</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -5436,20 +7111,26 @@
         <f t="shared" si="4"/>
         <v>248.41634579555335</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4" t="e">
+      <c r="E17" s="4">
+        <v>4.0389999999999997</v>
+      </c>
+      <c r="F17" s="4">
         <f>(2*(B17^3)/E17)/1000000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4" t="e">
+        <v>495.17207229512258</v>
+      </c>
+      <c r="G17" s="4">
+        <v>2.8439999999999999</v>
+      </c>
+      <c r="H17" s="4">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I17" s="4"/>
-      <c r="J17" s="5" t="e">
+        <v>703.23488045007036</v>
+      </c>
+      <c r="I17" s="4">
+        <v>2.65</v>
+      </c>
+      <c r="J17" s="5">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>754.7169811320756</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -5464,20 +7145,26 @@
         <f t="shared" si="4"/>
         <v>248.62954741086395</v>
       </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4" t="e">
+      <c r="E18" s="4">
+        <v>11.13</v>
+      </c>
+      <c r="F18" s="4">
         <f>(2*(B18^3)/E18)/1000000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4" t="e">
+        <v>493.0817610062893</v>
+      </c>
+      <c r="G18" s="4">
+        <v>8.0009999999999994</v>
+      </c>
+      <c r="H18" s="4">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I18" s="4"/>
-      <c r="J18" s="5" t="e">
+        <v>685.91426071741034</v>
+      </c>
+      <c r="I18" s="4">
+        <v>6.9790000000000001</v>
+      </c>
+      <c r="J18" s="5">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>786.3590772316951</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -5492,20 +7179,26 @@
         <f t="shared" si="4"/>
         <v>248.5933503836317</v>
       </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4" t="e">
+      <c r="E19" s="4">
+        <v>23.885999999999999</v>
+      </c>
+      <c r="F19" s="4">
         <f>(2*(D19^3)/E19)/1000000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4" t="e">
+        <v>1.2863379729550879</v>
+      </c>
+      <c r="G19" s="4">
+        <v>16.943999999999999</v>
+      </c>
+      <c r="H19" s="4">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I19" s="4"/>
-      <c r="J19" s="5" t="e">
+        <v>688.38526912181305</v>
+      </c>
+      <c r="I19" s="4">
+        <v>15.051</v>
+      </c>
+      <c r="J19" s="5">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>774.96511859677105</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -5520,20 +7213,26 @@
         <f t="shared" si="4"/>
         <v>247.08489482416553</v>
       </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4" t="e">
+      <c r="E20" s="4">
+        <v>45.180999999999997</v>
+      </c>
+      <c r="F20" s="4">
         <f>(2*(B20^3)/E20)/1000000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4" t="e">
+        <v>471.34857572873557</v>
+      </c>
+      <c r="G20" s="4">
+        <v>30.196999999999999</v>
+      </c>
+      <c r="H20" s="4">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I20" s="4"/>
-      <c r="J20" s="5" t="e">
+        <v>705.23561943239395</v>
+      </c>
+      <c r="I20" s="4">
+        <v>27.709</v>
+      </c>
+      <c r="J20" s="5">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>768.55895196506549</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -5548,20 +7247,26 @@
         <f t="shared" si="4"/>
         <v>255.04251676001971</v>
       </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4" t="e">
+      <c r="E21" s="4">
+        <v>72.667000000000002</v>
+      </c>
+      <c r="F21" s="4">
         <f>(2*(B21^3)/E21)/1000000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4" t="e">
+        <v>483.74090027109969</v>
+      </c>
+      <c r="G21" s="4">
+        <v>48.241999999999997</v>
+      </c>
+      <c r="H21" s="4">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I21" s="4"/>
-      <c r="J21" s="5" t="e">
+        <v>728.6596741428632</v>
+      </c>
+      <c r="I21" s="4">
+        <v>38.125</v>
+      </c>
+      <c r="J21" s="5">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>922.01967213114756</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -5576,20 +7281,26 @@
         <f t="shared" si="4"/>
         <v>246.194247261089</v>
       </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4" t="e">
+      <c r="E22" s="4">
+        <v>109.44</v>
+      </c>
+      <c r="F22" s="4">
         <f>(2*(B22^3)/E22)/1000000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4" t="e">
+        <v>493.42105263157896</v>
+      </c>
+      <c r="G22" s="4">
+        <v>74.129000000000005</v>
+      </c>
+      <c r="H22" s="4">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="5" t="e">
+        <v>728.45984702343219</v>
+      </c>
+      <c r="I22" s="4">
+        <v>62.826000000000001</v>
+      </c>
+      <c r="J22" s="5">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>859.51676057683119</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -5634,20 +7345,26 @@
         <f>(2*(B24^3)/C24)/1000000</f>
         <v>246.22203071619833</v>
       </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4" t="e">
+      <c r="E24" s="4">
+        <v>251.81100000000001</v>
+      </c>
+      <c r="F24" s="4">
         <f>(2*(B24^3)/E24)/1000000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4" t="e">
+        <v>508.3177462461926</v>
+      </c>
+      <c r="G24" s="4">
+        <v>176.709</v>
+      </c>
+      <c r="H24" s="4">
         <f>(2*(B24^3)/G24)/1000000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I24" s="4"/>
-      <c r="J24" s="5" t="e">
+        <v>724.35473009297777</v>
+      </c>
+      <c r="I24" s="4">
+        <v>139.99100000000001</v>
+      </c>
+      <c r="J24" s="5">
         <f>(2*(B24^3)/I24)/1000000</f>
-        <v>#DIV/0!</v>
+        <v>914.34449357458686</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -5662,20 +7379,26 @@
         <f>(2*(B25^3)/C25)/1000000</f>
         <v>246.6477037212972</v>
       </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4" t="e">
+      <c r="E25" s="4">
+        <v>873.36400000000003</v>
+      </c>
+      <c r="F25" s="4">
         <f>(2*(B25^3)/E25)/1000000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4" t="e">
+        <v>494.63911954236721</v>
+      </c>
+      <c r="G25" s="4">
+        <v>582.04399999999998</v>
+      </c>
+      <c r="H25" s="4">
         <f>(2*(B25^3)/G25)/1000000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I25" s="4"/>
-      <c r="J25" s="5" t="e">
+        <v>742.21192899505877</v>
+      </c>
+      <c r="I25" s="4">
+        <v>481.31700000000001</v>
+      </c>
+      <c r="J25" s="5">
         <f>(2*(B25^3)/I25)/1000000</f>
-        <v>#DIV/0!</v>
+        <v>897.53738180866242</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -5690,20 +7413,26 @@
         <f>(2*(B26^3)/C26)/1000000</f>
         <v>259.03223129959304</v>
       </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4" t="e">
+      <c r="E26" s="4">
+        <v>2064.9740000000002</v>
+      </c>
+      <c r="F26" s="4">
         <f>(2*(B26^3)/E26)/1000000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4" t="e">
+        <v>495.89002089130412</v>
+      </c>
+      <c r="G26" s="4">
+        <v>1376.4349999999999</v>
+      </c>
+      <c r="H26" s="4">
         <f>(2*(B26^3)/G26)/1000000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I26" s="4"/>
-      <c r="J26" s="5" t="e">
+        <v>743.95085855852255</v>
+      </c>
+      <c r="I26" s="4">
+        <v>1115.2090000000001</v>
+      </c>
+      <c r="J26" s="5">
         <f>(2*(B26^3)/I26)/1000000</f>
-        <v>#DIV/0!</v>
+        <v>918.21353665546098</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -5718,20 +7447,26 @@
         <f>(2*(B27^3)/C27)/1000000</f>
         <v>260.2625424423141</v>
       </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6" t="e">
+      <c r="E27" s="6">
+        <v>4008.2539999999999</v>
+      </c>
+      <c r="F27" s="6">
         <f>(2*(B27^3)/E27)/1000000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6" t="e">
+        <v>498.97037463194698</v>
+      </c>
+      <c r="G27" s="6">
+        <v>2615.4859999999999</v>
+      </c>
+      <c r="H27" s="6">
         <f>(2*(B27^3)/G27)/1000000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I27" s="6"/>
-      <c r="J27" s="7" t="e">
+        <v>764.6762399034061</v>
+      </c>
+      <c r="I27" s="6">
+        <v>2134.375</v>
+      </c>
+      <c r="J27" s="7">
         <f>(2*(B27^3)/I27)/1000000</f>
-        <v>#DIV/0!</v>
+        <v>937.04245973645675</v>
       </c>
     </row>
   </sheetData>

--- a/Lab1/docs/Statistics.xlsx
+++ b/Lab1/docs/Statistics.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Normal" sheetId="1" r:id="rId1"/>
@@ -587,7 +587,14 @@
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
-  <c:style val="2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -602,16 +609,64 @@
             <c:v>C/C++</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="9360">
+            <a:ln w="9525" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="5B9BD5"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="5"/>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -682,16 +737,64 @@
             <c:v>Java</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="9360">
+            <a:ln w="9525" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="ED7D31"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="5"/>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -763,36 +866,124 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1729220304"/>
-        <c:axId val="-1859810480"/>
+        <c:axId val="-195897648"/>
+        <c:axId val="-195897104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1729220304"/>
+        <c:axId val="-195897648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1859810480"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-195897104"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1859810480"/>
+        <c:axId val="-195897104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1729220304"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-195897648"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -801,27 +992,80 @@
         <a:ln>
           <a:noFill/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
+    <a:effectLst/>
   </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -835,30 +1079,82 @@
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
-  <c:style val="2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="pt-PT" sz="1600" b="1">
-                <a:solidFill>
-                  <a:srgbClr val="F2F2F2"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:rPr>
+              <a:rPr lang="pt-PT"/>
               <a:t>Otimizado - Iterações de 400</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -873,16 +1169,64 @@
             <c:v>C/C++</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="9360">
+            <a:ln w="9525" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="5B9BD5"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="5"/>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -953,16 +1297,64 @@
             <c:v>Java</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="9360">
+            <a:ln w="9525" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="ED7D31"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="5"/>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -1034,36 +1426,124 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1676536240"/>
-        <c:axId val="-1676547120"/>
+        <c:axId val="-195907440"/>
+        <c:axId val="-195906896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1676536240"/>
+        <c:axId val="-195907440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1676547120"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-195906896"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1676547120"/>
+        <c:axId val="-195906896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1676536240"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-195907440"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1072,27 +1552,80 @@
         <a:ln>
           <a:noFill/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
+    <a:effectLst/>
   </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -1106,30 +1639,82 @@
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
-  <c:style val="2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="pt-PT" b="1">
-                <a:solidFill>
-                  <a:srgbClr val="F2F2F2"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:rPr>
+              <a:rPr lang="pt-PT"/>
               <a:t>Otimizado - Iterações de 2000</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1144,16 +1729,64 @@
             <c:v>C/C++</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="9360">
+            <a:ln w="9525" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="5B9BD5"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="5"/>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -1206,16 +1839,64 @@
             <c:v>Java</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="9360">
+            <a:ln w="9525" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="ED7D31"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="5"/>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -1269,36 +1950,124 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1676544944"/>
-        <c:axId val="-1676542224"/>
+        <c:axId val="-360184144"/>
+        <c:axId val="-360178704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1676544944"/>
+        <c:axId val="-360184144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1676542224"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-360178704"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1676542224"/>
+        <c:axId val="-360178704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1676544944"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-360184144"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1307,27 +2076,80 @@
         <a:ln>
           <a:noFill/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
     <a:ln>
       <a:noFill/>
     </a:ln>
+    <a:effectLst/>
   </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -2287,10 +3109,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Otimizado com Paralelismo'!$F$16:$F$22</c:f>
+              <c:f>('Otimizado com Paralelismo'!$F$16:$F$22,'Otimizado com Paralelismo'!$F$24:$F$27)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>507.63807285546415</c:v>
                 </c:pt>
@@ -2301,7 +3123,7 @@
                   <c:v>493.0817610062893</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2863379729550879</c:v>
+                  <c:v>488.31951770911832</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>471.34857572873557</c:v>
@@ -2311,6 +3133,18 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>493.42105263157896</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>508.3177462461926</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>494.63911954236721</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>495.89002089130412</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>498.97037463194698</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2577,11 +3411,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1676537872"/>
-        <c:axId val="-1676544400"/>
+        <c:axId val="-360395136"/>
+        <c:axId val="-360394592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1676537872"/>
+        <c:axId val="-360395136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2702,12 +3536,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1676544400"/>
+        <c:crossAx val="-360394592"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1676544400"/>
+        <c:axId val="-360394592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2832,7 +3666,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1676537872"/>
+        <c:crossAx val="-360395136"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3694,11 +4528,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1676543856"/>
-        <c:axId val="-1676541136"/>
+        <c:axId val="-141253728"/>
+        <c:axId val="-141249376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1676543856"/>
+        <c:axId val="-141253728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3819,12 +4653,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1676541136"/>
+        <c:crossAx val="-141249376"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1676541136"/>
+        <c:axId val="-141249376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3950,7 +4784,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1676543856"/>
+        <c:crossAx val="-141253728"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4082,6 +4916,126 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="15">
   <a:schemeClr val="accent2"/>
 </cs:colorStyle>
@@ -4590,6 +5544,1512 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6187,7 +8647,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
@@ -6574,8 +9034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7183,8 +9643,8 @@
         <v>23.885999999999999</v>
       </c>
       <c r="F19" s="4">
-        <f>(2*(D19^3)/E19)/1000000</f>
-        <v>1.2863379729550879</v>
+        <f>(2*(B19^3)/E19)/1000000</f>
+        <v>488.31951770911832</v>
       </c>
       <c r="G19" s="4">
         <v>16.943999999999999</v>

--- a/Lab1/docs/Statistics.xlsx
+++ b/Lab1/docs/Statistics.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Normal" sheetId="1" r:id="rId1"/>
     <sheet name="Otimizado" sheetId="2" r:id="rId2"/>
-    <sheet name="Otimizado com Paralelismo" sheetId="3" r:id="rId3"/>
-    <sheet name="Comparação Global" sheetId="4" r:id="rId4"/>
+    <sheet name="Normal com Paralelismo" sheetId="5" r:id="rId3"/>
+    <sheet name="Otimizado com Paralelismo" sheetId="3" r:id="rId4"/>
+    <sheet name="Comparação Global" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="17">
   <si>
     <t>Linguagem</t>
   </si>
@@ -180,7 +181,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -416,11 +417,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -495,6 +533,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -866,11 +913,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-195897648"/>
-        <c:axId val="-195897104"/>
+        <c:axId val="-1165060928"/>
+        <c:axId val="-1165065280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-195897648"/>
+        <c:axId val="-1165060928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -924,12 +971,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-195897104"/>
+        <c:crossAx val="-1165065280"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-195897104"/>
+        <c:axId val="-1165065280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -983,7 +1030,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-195897648"/>
+        <c:crossAx val="-1165060928"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1426,11 +1473,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-195907440"/>
-        <c:axId val="-195906896"/>
+        <c:axId val="-1165059840"/>
+        <c:axId val="-1165064192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-195907440"/>
+        <c:axId val="-1165059840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1484,12 +1531,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-195906896"/>
+        <c:crossAx val="-1165064192"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-195906896"/>
+        <c:axId val="-1165064192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1543,7 +1590,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-195907440"/>
+        <c:crossAx val="-1165059840"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1950,11 +1997,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-360184144"/>
-        <c:axId val="-360178704"/>
+        <c:axId val="-1165061472"/>
+        <c:axId val="-1165067456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-360184144"/>
+        <c:axId val="-1165061472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2008,12 +2055,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-360178704"/>
+        <c:crossAx val="-1165067456"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-360178704"/>
+        <c:axId val="-1165067456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2067,7 +2114,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-360184144"/>
+        <c:crossAx val="-1165061472"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3411,11 +3458,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-360395136"/>
-        <c:axId val="-360394592"/>
+        <c:axId val="-1165058208"/>
+        <c:axId val="-1165057664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-360395136"/>
+        <c:axId val="-1165058208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3536,12 +3583,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-360394592"/>
+        <c:crossAx val="-1165057664"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-360394592"/>
+        <c:axId val="-1165057664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3666,7 +3713,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-360395136"/>
+        <c:crossAx val="-1165058208"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3828,7 +3875,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4528,11 +4574,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-141253728"/>
-        <c:axId val="-141249376"/>
+        <c:axId val="-1165071808"/>
+        <c:axId val="-1165071264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-141253728"/>
+        <c:axId val="-1165071808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4590,7 +4636,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4653,12 +4698,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-141249376"/>
+        <c:crossAx val="-1165071264"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-141249376"/>
+        <c:axId val="-1165071264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4721,7 +4766,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4784,7 +4828,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-141253728"/>
+        <c:crossAx val="-1165071808"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4798,7 +4842,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7770,13 +7813,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>598320</xdr:colOff>
+      <xdr:colOff>569744</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>33840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>729360</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>114480</xdr:rowOff>
     </xdr:to>
@@ -7787,8 +7830,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15574680" y="233640"/>
-          <a:ext cx="2418840" cy="461520"/>
+          <a:off x="11799719" y="224340"/>
+          <a:ext cx="3564105" cy="461640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8382,7 +8425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -8647,8 +8690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8701,7 +8744,7 @@
         <v>0.313</v>
       </c>
       <c r="D2" s="3">
-        <f t="shared" ref="D2:D8" si="0">(2*(B2^3)/C2)/1000000</f>
+        <f>(2*(B2^3)/C2)/1000000</f>
         <v>1380.1916932907347</v>
       </c>
       <c r="F2" s="23" t="s">
@@ -8727,7 +8770,7 @@
         <v>1.921</v>
       </c>
       <c r="D3" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D2:D8" si="0">(2*(B3^3)/C3)/1000000</f>
         <v>1041.1244143675169</v>
       </c>
       <c r="F3" s="23"/>
@@ -9032,10 +9075,270 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="27.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="14">
+        <v>600</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="e">
+        <f t="shared" ref="D2:D8" si="0">(2*(B2^3)/C2)/1000000</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="e">
+        <f t="shared" ref="F2:F8" si="1">(2*(B2^3)/E2)/1000000</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="e">
+        <f t="shared" ref="H2:H8" si="2">(2*(B2^3)/G2)/1000000</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="J2" s="3">
+        <f>(2*(B2^3)/I2)/1000000</f>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="27"/>
+      <c r="B3" s="15">
+        <v>1000</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I3" s="4">
+        <v>6.1849999999999996</v>
+      </c>
+      <c r="J3" s="5">
+        <f>(2*(B3^3)/I3)/1000000</f>
+        <v>323.36297493936945</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="27"/>
+      <c r="B4" s="15">
+        <v>1400</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I4" s="4">
+        <v>17.265999999999998</v>
+      </c>
+      <c r="J4" s="5">
+        <f>(2*(B4^3)/I4)/1000000</f>
+        <v>317.85011004285883</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="27"/>
+      <c r="B5" s="15">
+        <v>1800</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I5" s="4">
+        <v>36.866</v>
+      </c>
+      <c r="J5" s="5">
+        <f>(2*(B5^3)/I5)/1000000</f>
+        <v>316.38908479357673</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="27"/>
+      <c r="B6" s="15">
+        <v>2200</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I6" s="4">
+        <v>68.161000000000001</v>
+      </c>
+      <c r="J6" s="5">
+        <f>(2*(B6^3)/I6)/1000000</f>
+        <v>312.43673068176815</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="27"/>
+      <c r="B7" s="15">
+        <v>2600</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I7" s="4">
+        <v>118.181</v>
+      </c>
+      <c r="J7" s="5">
+        <f>(2*(B7^3)/I7)/1000000</f>
+        <v>297.44205921425612</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="28"/>
+      <c r="B8" s="15">
+        <v>3000</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I8" s="4">
+        <v>181.072</v>
+      </c>
+      <c r="J8" s="5">
+        <f>(2*(B8^3)/I8)/1000000</f>
+        <v>298.2239109304586</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9541,21 +9844,21 @@
         <v>0.85099999999999998</v>
       </c>
       <c r="F16" s="4">
-        <f>(2*(B16^3)/E16)/1000000</f>
+        <f t="shared" ref="F16:F22" si="5">(2*(B16^3)/E16)/1000000</f>
         <v>507.63807285546415</v>
       </c>
       <c r="G16" s="4">
         <v>0.70299999999999996</v>
       </c>
       <c r="H16" s="4">
-        <f t="shared" ref="H16:H22" si="5">(2*(B16^3)/G16)/1000000</f>
+        <f t="shared" ref="H16:H22" si="6">(2*(B16^3)/G16)/1000000</f>
         <v>614.50924608819355</v>
       </c>
       <c r="I16" s="4">
         <v>0.56999999999999995</v>
       </c>
       <c r="J16" s="5">
-        <f t="shared" ref="J16:J22" si="6">(2*(B16^3)/I16)/1000000</f>
+        <f t="shared" ref="J16:J22" si="7">(2*(B16^3)/I16)/1000000</f>
         <v>757.89473684210532</v>
       </c>
     </row>
@@ -9575,21 +9878,21 @@
         <v>4.0389999999999997</v>
       </c>
       <c r="F17" s="4">
-        <f>(2*(B17^3)/E17)/1000000</f>
+        <f t="shared" si="5"/>
         <v>495.17207229512258</v>
       </c>
       <c r="G17" s="4">
         <v>2.8439999999999999</v>
       </c>
       <c r="H17" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>703.23488045007036</v>
       </c>
       <c r="I17" s="4">
         <v>2.65</v>
       </c>
       <c r="J17" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>754.7169811320756</v>
       </c>
     </row>
@@ -9609,21 +9912,21 @@
         <v>11.13</v>
       </c>
       <c r="F18" s="4">
-        <f>(2*(B18^3)/E18)/1000000</f>
+        <f t="shared" si="5"/>
         <v>493.0817610062893</v>
       </c>
       <c r="G18" s="4">
         <v>8.0009999999999994</v>
       </c>
       <c r="H18" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>685.91426071741034</v>
       </c>
       <c r="I18" s="4">
         <v>6.9790000000000001</v>
       </c>
       <c r="J18" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>786.3590772316951</v>
       </c>
     </row>
@@ -9643,21 +9946,21 @@
         <v>23.885999999999999</v>
       </c>
       <c r="F19" s="4">
-        <f>(2*(B19^3)/E19)/1000000</f>
+        <f t="shared" si="5"/>
         <v>488.31951770911832</v>
       </c>
       <c r="G19" s="4">
         <v>16.943999999999999</v>
       </c>
       <c r="H19" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>688.38526912181305</v>
       </c>
       <c r="I19" s="4">
         <v>15.051</v>
       </c>
       <c r="J19" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>774.96511859677105</v>
       </c>
     </row>
@@ -9677,21 +9980,21 @@
         <v>45.180999999999997</v>
       </c>
       <c r="F20" s="4">
-        <f>(2*(B20^3)/E20)/1000000</f>
+        <f t="shared" si="5"/>
         <v>471.34857572873557</v>
       </c>
       <c r="G20" s="4">
         <v>30.196999999999999</v>
       </c>
       <c r="H20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>705.23561943239395</v>
       </c>
       <c r="I20" s="4">
         <v>27.709</v>
       </c>
       <c r="J20" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>768.55895196506549</v>
       </c>
     </row>
@@ -9711,21 +10014,21 @@
         <v>72.667000000000002</v>
       </c>
       <c r="F21" s="4">
-        <f>(2*(B21^3)/E21)/1000000</f>
+        <f t="shared" si="5"/>
         <v>483.74090027109969</v>
       </c>
       <c r="G21" s="4">
         <v>48.241999999999997</v>
       </c>
       <c r="H21" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>728.6596741428632</v>
       </c>
       <c r="I21" s="4">
         <v>38.125</v>
       </c>
       <c r="J21" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>922.01967213114756</v>
       </c>
     </row>
@@ -9745,21 +10048,21 @@
         <v>109.44</v>
       </c>
       <c r="F22" s="4">
-        <f>(2*(B22^3)/E22)/1000000</f>
+        <f t="shared" si="5"/>
         <v>493.42105263157896</v>
       </c>
       <c r="G22" s="4">
         <v>74.129000000000005</v>
       </c>
       <c r="H22" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>728.45984702343219</v>
       </c>
       <c r="I22" s="4">
         <v>62.826000000000001</v>
       </c>
       <c r="J22" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>859.51676057683119</v>
       </c>
     </row>
@@ -9940,7 +10243,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/Lab1/docs/Statistics.xlsx
+++ b/Lab1/docs/Statistics.xlsx
@@ -9,14 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Normal" sheetId="1" r:id="rId1"/>
     <sheet name="Otimizado" sheetId="2" r:id="rId2"/>
     <sheet name="Normal com Paralelismo" sheetId="5" r:id="rId3"/>
     <sheet name="Otimizado com Paralelismo" sheetId="3" r:id="rId4"/>
-    <sheet name="Comparação Global" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -529,12 +528,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -542,6 +535,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -913,11 +912,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1165060928"/>
-        <c:axId val="-1165065280"/>
+        <c:axId val="1051111280"/>
+        <c:axId val="1051112912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1165060928"/>
+        <c:axId val="1051111280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -971,12 +970,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1165065280"/>
+        <c:crossAx val="1051112912"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1165065280"/>
+        <c:axId val="1051112912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1030,7 +1029,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1165060928"/>
+        <c:crossAx val="1051111280"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1044,7 +1043,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1473,11 +1471,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1165059840"/>
-        <c:axId val="-1165064192"/>
+        <c:axId val="1092215648"/>
+        <c:axId val="1092217824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1165059840"/>
+        <c:axId val="1092215648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1531,12 +1529,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1165064192"/>
+        <c:crossAx val="1092217824"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1165064192"/>
+        <c:axId val="1092217824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1590,7 +1588,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1165059840"/>
+        <c:crossAx val="1092215648"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1997,11 +1995,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1165061472"/>
-        <c:axId val="-1165067456"/>
+        <c:axId val="888285216"/>
+        <c:axId val="888286304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1165061472"/>
+        <c:axId val="888285216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2055,12 +2053,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1165067456"/>
+        <c:crossAx val="888286304"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1165067456"/>
+        <c:axId val="888286304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2114,7 +2112,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1165061472"/>
+        <c:crossAx val="888285216"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2206,6 +2204,862 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1 Thread</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Normal com Paralelismo'!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Normal com Paralelismo'!$D$2:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>330.78101071975499</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>269.83270372369128</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>249.89754564910524</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>237.34331759726518</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>225.35211267605632</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>201.6035604088047</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>183.86671705976693</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2 Threads</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Normal com Paralelismo'!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Normal com Paralelismo'!$F$2:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>409.86717267552177</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>363.4381246592767</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>344.31269213877908</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>339.31636363636363</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>332.68762107104914</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>324.47201299660321</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>314.80088843806288</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>3 Threads</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Normal com Paralelismo'!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Normal com Paralelismo'!$H$2:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>402.23463687150837</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>343.17089910775564</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>328.76055831785771</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>321.30461131618097</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>317.76063504379351</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>314.41016788458268</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>309.45204066429039</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>4 Threads</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="9525" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln w="9525" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Normal com Paralelismo'!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Normal com Paralelismo'!$J$2:$J$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>369.86301369863014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>346.44032565390609</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>329.72843066570539</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>324.30628927320248</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>314.79674796747963</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>317.20478622606436</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>309.47864310808251</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="887815616"/>
+        <c:axId val="887816160"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="887815616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Tamanho</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="887816160"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="887816160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Capacidade [MFLOPS/s]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="887815616"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3458,11 +4312,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1165058208"/>
-        <c:axId val="-1165057664"/>
+        <c:axId val="1037550016"/>
+        <c:axId val="1037548384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1165058208"/>
+        <c:axId val="1037550016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3583,12 +4437,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1165057664"/>
+        <c:crossAx val="1037548384"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1165057664"/>
+        <c:axId val="1037548384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3713,7 +4567,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1165058208"/>
+        <c:crossAx val="1037550016"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3804,7 +4658,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3875,6 +4729,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4574,11 +5429,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1165071808"/>
-        <c:axId val="-1165071264"/>
+        <c:axId val="1141604160"/>
+        <c:axId val="1141606336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1165071808"/>
+        <c:axId val="1141604160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4636,6 +5491,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4698,12 +5554,12 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1165071264"/>
+        <c:crossAx val="1141606336"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1165071264"/>
+        <c:axId val="1141606336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4766,6 +5622,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4828,7 +5685,7 @@
             <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1165071808"/>
+        <c:crossAx val="1141604160"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4842,6 +5699,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5079,6 +5937,46 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="15">
   <a:schemeClr val="accent2"/>
 </cs:colorStyle>
@@ -7093,6 +7991,508 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="248">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8099,6 +9499,43 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342690</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>236520</xdr:colOff>
       <xdr:row>28</xdr:row>
@@ -8690,7 +10127,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -8770,7 +10207,7 @@
         <v>1.921</v>
       </c>
       <c r="D3" s="5">
-        <f t="shared" ref="D2:D8" si="0">(2*(B3^3)/C3)/1000000</f>
+        <f t="shared" ref="D3:D8" si="0">(2*(B3^3)/C3)/1000000</f>
         <v>1041.1244143675169</v>
       </c>
       <c r="F3" s="23"/>
@@ -9077,8 +10514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9127,201 +10564,243 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="24" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="14">
         <v>600</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="e">
+      <c r="C2" s="2">
+        <v>1.306</v>
+      </c>
+      <c r="D2" s="2">
         <f t="shared" ref="D2:D8" si="0">(2*(B2^3)/C2)/1000000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="e">
+        <v>330.78101071975499</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1.054</v>
+      </c>
+      <c r="F2" s="2">
         <f t="shared" ref="F2:F8" si="1">(2*(B2^3)/E2)/1000000</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="e">
+        <v>409.86717267552177</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1.0740000000000001</v>
+      </c>
+      <c r="H2" s="2">
         <f t="shared" ref="H2:H8" si="2">(2*(B2^3)/G2)/1000000</f>
-        <v>#DIV/0!</v>
+        <v>402.23463687150837</v>
       </c>
       <c r="I2" s="2">
-        <v>1.2</v>
+        <v>1.1679999999999999</v>
       </c>
       <c r="J2" s="3">
-        <f>(2*(B2^3)/I2)/1000000</f>
-        <v>360</v>
+        <f t="shared" ref="J2:J8" si="3">(2*(B2^3)/I2)/1000000</f>
+        <v>369.86301369863014</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
+      <c r="A3" s="25"/>
       <c r="B3" s="15">
         <v>1000</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4" t="e">
+      <c r="C3" s="4">
+        <v>7.4119999999999999</v>
+      </c>
+      <c r="D3" s="4">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4" t="e">
+        <v>269.83270372369128</v>
+      </c>
+      <c r="E3" s="4">
+        <v>5.5030000000000001</v>
+      </c>
+      <c r="F3" s="4">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4" t="e">
+        <v>363.4381246592767</v>
+      </c>
+      <c r="G3" s="4">
+        <v>5.8280000000000003</v>
+      </c>
+      <c r="H3" s="4">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>343.17089910775564</v>
       </c>
       <c r="I3" s="4">
-        <v>6.1849999999999996</v>
+        <v>5.7729999999999997</v>
       </c>
       <c r="J3" s="5">
-        <f>(2*(B3^3)/I3)/1000000</f>
-        <v>323.36297493936945</v>
+        <f t="shared" si="3"/>
+        <v>346.44032565390609</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="15">
         <v>1400</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="e">
+      <c r="C4" s="4">
+        <v>21.960999999999999</v>
+      </c>
+      <c r="D4" s="4">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4" t="e">
+        <v>249.89754564910524</v>
+      </c>
+      <c r="E4" s="4">
+        <v>15.939</v>
+      </c>
+      <c r="F4" s="4">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4" t="e">
+        <v>344.31269213877908</v>
+      </c>
+      <c r="G4" s="4">
+        <v>16.693000000000001</v>
+      </c>
+      <c r="H4" s="4">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>328.76055831785771</v>
       </c>
       <c r="I4" s="4">
-        <v>17.265999999999998</v>
+        <v>16.643999999999998</v>
       </c>
       <c r="J4" s="5">
-        <f>(2*(B4^3)/I4)/1000000</f>
-        <v>317.85011004285883</v>
+        <f t="shared" si="3"/>
+        <v>329.72843066570539</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="15">
         <v>1800</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="e">
+      <c r="C5" s="4">
+        <v>49.143999999999998</v>
+      </c>
+      <c r="D5" s="4">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4" t="e">
+        <v>237.34331759726518</v>
+      </c>
+      <c r="E5" s="4">
+        <v>34.375</v>
+      </c>
+      <c r="F5" s="4">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4" t="e">
+        <v>339.31636363636363</v>
+      </c>
+      <c r="G5" s="4">
+        <v>36.302</v>
+      </c>
+      <c r="H5" s="4">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>321.30461131618097</v>
       </c>
       <c r="I5" s="4">
-        <v>36.866</v>
+        <v>35.966000000000001</v>
       </c>
       <c r="J5" s="5">
-        <f>(2*(B5^3)/I5)/1000000</f>
-        <v>316.38908479357673</v>
+        <f t="shared" si="3"/>
+        <v>324.30628927320248</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="15">
         <v>2200</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="e">
+      <c r="C6" s="4">
+        <v>94.501000000000005</v>
+      </c>
+      <c r="D6" s="4">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4" t="e">
+        <v>225.35211267605632</v>
+      </c>
+      <c r="E6" s="4">
+        <v>64.012</v>
+      </c>
+      <c r="F6" s="4">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4" t="e">
+        <v>332.68762107104914</v>
+      </c>
+      <c r="G6" s="4">
+        <v>67.019000000000005</v>
+      </c>
+      <c r="H6" s="4">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>317.76063504379351</v>
       </c>
       <c r="I6" s="4">
-        <v>68.161000000000001</v>
+        <v>67.650000000000006</v>
       </c>
       <c r="J6" s="5">
-        <f>(2*(B6^3)/I6)/1000000</f>
-        <v>312.43673068176815</v>
+        <f t="shared" si="3"/>
+        <v>314.79674796747963</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="15">
         <v>2600</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4" t="e">
+      <c r="C7" s="4">
+        <v>174.36199999999999</v>
+      </c>
+      <c r="D7" s="4">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4" t="e">
+        <v>201.6035604088047</v>
+      </c>
+      <c r="E7" s="4">
+        <v>108.336</v>
+      </c>
+      <c r="F7" s="4">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4" t="e">
+        <v>324.47201299660321</v>
+      </c>
+      <c r="G7" s="4">
+        <v>111.803</v>
+      </c>
+      <c r="H7" s="4">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>314.41016788458268</v>
       </c>
       <c r="I7" s="4">
-        <v>118.181</v>
+        <v>110.818</v>
       </c>
       <c r="J7" s="5">
-        <f>(2*(B7^3)/I7)/1000000</f>
-        <v>297.44205921425612</v>
+        <f t="shared" si="3"/>
+        <v>317.20478622606436</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="28"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="15">
         <v>3000</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4" t="e">
+      <c r="C8" s="4">
+        <v>293.69099999999997</v>
+      </c>
+      <c r="D8" s="4">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4" t="e">
+        <v>183.86671705976693</v>
+      </c>
+      <c r="E8" s="4">
+        <v>171.53700000000001</v>
+      </c>
+      <c r="F8" s="4">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4" t="e">
+        <v>314.80088843806288</v>
+      </c>
+      <c r="G8" s="4">
+        <v>174.50200000000001</v>
+      </c>
+      <c r="H8" s="4">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>309.45204066429039</v>
       </c>
       <c r="I8" s="4">
-        <v>181.072</v>
+        <v>174.48699999999999</v>
       </c>
       <c r="J8" s="5">
-        <f>(2*(B8^3)/I8)/1000000</f>
-        <v>298.2239109304586</v>
+        <f t="shared" si="3"/>
+        <v>309.47864310808251</v>
       </c>
     </row>
   </sheetData>
@@ -9330,6 +10809,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -9389,7 +10869,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="27" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="14">
@@ -9425,7 +10905,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
+      <c r="A3" s="27"/>
       <c r="B3" s="15">
         <v>1000</v>
       </c>
@@ -9459,7 +10939,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="15">
         <v>1400</v>
       </c>
@@ -9493,7 +10973,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="15">
         <v>1800</v>
       </c>
@@ -9527,7 +11007,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="15">
         <v>2200</v>
       </c>
@@ -9561,7 +11041,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="15">
         <v>2600</v>
       </c>
@@ -9595,7 +11075,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="15">
         <v>3000</v>
       </c>
@@ -9629,7 +11109,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="16" t="s">
         <v>15</v>
       </c>
@@ -9659,7 +11139,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="15">
         <v>4000</v>
       </c>
@@ -9693,7 +11173,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="15">
         <v>6000</v>
       </c>
@@ -9727,7 +11207,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="15">
         <v>8000</v>
       </c>
@@ -9761,7 +11241,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="19">
         <v>10000</v>
       </c>
@@ -9827,7 +11307,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="28" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="15">
@@ -9863,7 +11343,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
+      <c r="A17" s="28"/>
       <c r="B17" s="15">
         <v>1000</v>
       </c>
@@ -9897,7 +11377,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
+      <c r="A18" s="28"/>
       <c r="B18" s="15">
         <v>1400</v>
       </c>
@@ -9931,7 +11411,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
+      <c r="A19" s="28"/>
       <c r="B19" s="15">
         <v>1800</v>
       </c>
@@ -9965,7 +11445,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
+      <c r="A20" s="28"/>
       <c r="B20" s="15">
         <v>2200</v>
       </c>
@@ -9999,7 +11479,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
+      <c r="A21" s="28"/>
       <c r="B21" s="15">
         <v>2600</v>
       </c>
@@ -10033,7 +11513,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
+      <c r="A22" s="28"/>
       <c r="B22" s="15">
         <v>3000</v>
       </c>
@@ -10067,7 +11547,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
+      <c r="A23" s="28"/>
       <c r="B23" s="16" t="s">
         <v>15</v>
       </c>
@@ -10097,7 +11577,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
+      <c r="A24" s="28"/>
       <c r="B24" s="15">
         <v>4000</v>
       </c>
@@ -10131,7 +11611,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="25"/>
+      <c r="A25" s="28"/>
       <c r="B25" s="15">
         <v>6000</v>
       </c>
@@ -10165,7 +11645,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="25"/>
+      <c r="A26" s="28"/>
       <c r="B26" s="15">
         <v>8000</v>
       </c>
@@ -10199,7 +11679,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="25"/>
+      <c r="A27" s="28"/>
       <c r="B27" s="19">
         <v>10000</v>
       </c>
@@ -10241,22 +11721,4 @@
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38:E39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1025" width="8.5703125"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
 </file>